--- a/STATS_2025.xlsx
+++ b/STATS_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Swish Swish\UNRIVALED_STATS_PLAYER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2197554-9490-487D-A218-EF1AE95319B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F861D2-4799-46F0-90CE-C6418554A438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXP" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ADVANCED!$A$2:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PER_GAME_BASIC!$A$2:$BM$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PER_GAME_BASIC!$A$2:$BO$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TOTAL_BASIC!$A$2:$U$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="105">
   <si>
     <t>TOTAL_BASIC</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>NaLyssa Smith</t>
+  </si>
+  <si>
+    <t>TOV%</t>
   </si>
 </sst>
 </file>
@@ -3981,11 +3984,11 @@
         <v>31</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" ref="T4:T49" si="0">F4-H4</f>
+        <f t="shared" ref="T4:T41" si="0">F4-H4</f>
         <v>79</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" ref="U4:U49" si="1">G4-I4</f>
+        <f t="shared" ref="U4:U41" si="1">G4-I4</f>
         <v>175</v>
       </c>
     </row>
@@ -7101,7 +7104,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BM82"/>
+  <dimension ref="A1:BO82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -7117,12 +7120,12 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="25" width="6.5703125" customWidth="1"/>
     <col min="26" max="35" width="7.5703125" customWidth="1"/>
-    <col min="36" max="37" width="8.5703125" customWidth="1"/>
-    <col min="38" max="59" width="6.5703125" customWidth="1"/>
-    <col min="60" max="65" width="7.5703125" customWidth="1"/>
+    <col min="36" max="38" width="8.5703125" customWidth="1"/>
+    <col min="39" max="60" width="6.5703125" customWidth="1"/>
+    <col min="61" max="66" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:67" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -7160,10 +7163,9 @@
       <c r="AG1" s="15"/>
       <c r="AH1" s="15"/>
       <c r="AI1" s="15"/>
-      <c r="AL1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="16"/>
       <c r="AN1" s="16"/>
       <c r="AO1" s="16"/>
       <c r="AP1" s="16"/>
@@ -7190,8 +7192,10 @@
       <c r="BK1" s="16"/>
       <c r="BL1" s="16"/>
       <c r="BM1" s="16"/>
-    </row>
-    <row r="2" spans="1:65" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+    </row>
+    <row r="2" spans="1:67" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
@@ -7297,92 +7301,98 @@
       <c r="AI2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AQ2" s="7" t="s">
+      <c r="AR2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AS2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AT2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AU2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AV2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AW2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="AX2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AY2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="BA2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="BA2" s="7" t="s">
+      <c r="BB2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="BB2" s="7" t="s">
+      <c r="BC2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="7" t="s">
+      <c r="BD2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BE2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BF2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BG2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BG2" s="7" t="s">
+      <c r="BH2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BH2" s="7" t="s">
+      <c r="BI2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="BI2" s="7" t="s">
+      <c r="BJ2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="BJ2" s="7" t="s">
+      <c r="BK2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BL2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BL2" s="7" t="s">
+      <c r="BM2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="BM2" s="7" t="s">
+      <c r="BN2" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO2" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -7501,120 +7511,128 @@
         <f>T3/V3</f>
         <v>0.41176470588235292</v>
       </c>
-      <c r="AL3" s="4">
-        <f t="shared" ref="AL3:AL17" si="0">(PERCENTRANK(D$3:D$78,D3))*100</f>
+      <c r="AJ3" s="9">
+        <f>100*U3/(G3+0.44*M3+U3)</f>
+        <v>8.0096115338406069</v>
+      </c>
+      <c r="AM3" s="4">
+        <f t="shared" ref="AM3:AM17" si="0">(PERCENTRANK(D$3:D$78,D3))*100</f>
         <v>100</v>
       </c>
-      <c r="AM3" s="4">
-        <f t="shared" ref="AM3:AM17" si="1">(PERCENTRANK(E$3:E$78,E3))*100</f>
+      <c r="AN3" s="4">
+        <f t="shared" ref="AN3:AN17" si="1">(PERCENTRANK(E$3:E$78,E3))*100</f>
         <v>100</v>
       </c>
-      <c r="AN3" s="4">
-        <f t="shared" ref="AN3:AN17" si="2">(PERCENTRANK(F$3:F$78,F3))*100</f>
+      <c r="AO3" s="4">
+        <f t="shared" ref="AO3:AO17" si="2">(PERCENTRANK(F$3:F$78,F3))*100</f>
         <v>100</v>
       </c>
-      <c r="AO3" s="4">
-        <f t="shared" ref="AO3:AO17" si="3">(PERCENTRANK(G$3:G$78,G3))*100</f>
+      <c r="AP3" s="4">
+        <f t="shared" ref="AP3:AP17" si="3">(PERCENTRANK(G$3:G$78,G3))*100</f>
         <v>92.100000000000009</v>
       </c>
-      <c r="AP3" s="4">
-        <f t="shared" ref="AP3:AP17" si="4">(PERCENTRANK(H$3:H$78,H3))*100</f>
+      <c r="AQ3" s="4">
+        <f t="shared" ref="AQ3:AQ17" si="4">(PERCENTRANK(H$3:H$78,H3))*100</f>
         <v>97.3</v>
       </c>
-      <c r="AQ3" s="4">
-        <f t="shared" ref="AQ3:AQ17" si="5">(PERCENTRANK(I$3:I$78,I3))*100</f>
+      <c r="AR3" s="4">
+        <f t="shared" ref="AR3:AR17" si="5">(PERCENTRANK(I$3:I$78,I3))*100</f>
         <v>71</v>
       </c>
-      <c r="AR3" s="4">
-        <f t="shared" ref="AR3:AR17" si="6">(PERCENTRANK(J$3:J$78,J3))*100</f>
+      <c r="AS3" s="4">
+        <f t="shared" ref="AS3:AS17" si="6">(PERCENTRANK(J$3:J$78,J3))*100</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="AS3" s="4">
-        <f t="shared" ref="AS3:AS17" si="7">(PERCENTRANK(K$3:K$78,K3))*100</f>
+      <c r="AT3" s="4">
+        <f t="shared" ref="AT3:AT17" si="7">(PERCENTRANK(K$3:K$78,K3))*100</f>
         <v>42.1</v>
       </c>
-      <c r="AT3" s="4">
-        <f t="shared" ref="AT3:AT17" si="8">(PERCENTRANK(L$3:L$78,L3))*100</f>
+      <c r="AU3" s="4">
+        <f t="shared" ref="AU3:AU17" si="8">(PERCENTRANK(L$3:L$78,L3))*100</f>
         <v>97.3</v>
       </c>
-      <c r="AU3" s="4">
-        <f t="shared" ref="AU3:AU17" si="9">(PERCENTRANK(M$3:M$78,M3))*100</f>
+      <c r="AV3" s="4">
+        <f t="shared" ref="AV3:AV17" si="9">(PERCENTRANK(M$3:M$78,M3))*100</f>
         <v>94.699999999999989</v>
       </c>
-      <c r="AV3" s="4">
-        <f t="shared" ref="AV3:AV17" si="10">(PERCENTRANK(N$3:N$78,N3))*100</f>
+      <c r="AW3" s="4">
+        <f t="shared" ref="AW3:AW17" si="10">(PERCENTRANK(N$3:N$78,N3))*100</f>
         <v>60.5</v>
       </c>
-      <c r="AW3" s="4">
-        <f t="shared" ref="AW3:AW17" si="11">(PERCENTRANK(O$3:O$78,O3))*100</f>
+      <c r="AX3" s="4">
+        <f t="shared" ref="AX3:AX17" si="11">(PERCENTRANK(O$3:O$78,O3))*100</f>
         <v>86.8</v>
       </c>
-      <c r="AX3" s="4">
-        <f t="shared" ref="AX3:AX17" si="12">(PERCENTRANK(P$3:P$78,P3))*100</f>
+      <c r="AY3" s="4">
+        <f t="shared" ref="AY3:AY17" si="12">(PERCENTRANK(P$3:P$78,P3))*100</f>
         <v>97.3</v>
       </c>
-      <c r="AY3" s="4">
-        <f t="shared" ref="AY3:AY17" si="13">(PERCENTRANK(Q$3:Q$78,Q3))*100</f>
+      <c r="AZ3" s="4">
+        <f t="shared" ref="AZ3:AZ17" si="13">(PERCENTRANK(Q$3:Q$78,Q3))*100</f>
         <v>92.100000000000009</v>
       </c>
-      <c r="AZ3" s="4">
-        <f t="shared" ref="AZ3:AZ17" si="14">(PERCENTRANK(R$3:R$78,R3))*100</f>
+      <c r="BA3" s="4">
+        <f t="shared" ref="BA3:BA17" si="14">(PERCENTRANK(R$3:R$78,R3))*100</f>
         <v>65.7</v>
       </c>
-      <c r="BA3" s="4">
-        <f t="shared" ref="BA3:BA17" si="15">(PERCENTRANK(S$3:S$78,S3))*100</f>
+      <c r="BB3" s="4">
+        <f t="shared" ref="BB3:BB17" si="15">(PERCENTRANK(S$3:S$78,S3))*100</f>
         <v>100</v>
       </c>
-      <c r="BB3" s="4">
-        <f t="shared" ref="BB3:BB17" si="16">(PERCENTRANK(T$3:T$78,T3))*100</f>
+      <c r="BC3" s="4">
+        <f t="shared" ref="BC3:BC17" si="16">(PERCENTRANK(T$3:T$78,T3))*100</f>
         <v>100</v>
       </c>
-      <c r="BC3" s="4">
-        <f t="shared" ref="BC3:BC49" si="17">100-(PERCENTRANK(U$3:U$78,U3))*100</f>
+      <c r="BD3" s="4">
+        <f t="shared" ref="BD3:BD41" si="17">100-(PERCENTRANK(U$3:U$78,U3))*100</f>
         <v>44.8</v>
       </c>
-      <c r="BD3" s="4">
-        <f t="shared" ref="BD3:BD49" si="18">100-(PERCENTRANK(V$3:V$78,V3))*100</f>
+      <c r="BE3" s="4">
+        <f t="shared" ref="BE3:BE41" si="18">100-(PERCENTRANK(V$3:V$78,V3))*100</f>
         <v>10.599999999999994</v>
       </c>
-      <c r="BE3" s="4">
-        <f t="shared" ref="BE3:BE28" si="19">(PERCENTRANK(W$3:W$78,W3))*100</f>
+      <c r="BF3" s="4">
+        <f t="shared" ref="BF3:BF28" si="19">(PERCENTRANK(W$3:W$78,W3))*100</f>
         <v>100</v>
       </c>
-      <c r="BF3" s="4">
-        <f t="shared" ref="BF3:BF28" si="20">(PERCENTRANK(X$3:X$78,X3))*100</f>
+      <c r="BG3" s="4">
+        <f t="shared" ref="BG3:BG28" si="20">(PERCENTRANK(X$3:X$78,X3))*100</f>
         <v>100</v>
       </c>
-      <c r="BG3" s="4">
-        <f t="shared" ref="BG3:BG28" si="21">(PERCENTRANK(Y$3:Y$78,Y3))*100</f>
+      <c r="BH3" s="4">
+        <f t="shared" ref="BH3:BH28" si="21">(PERCENTRANK(Y$3:Y$78,Y3))*100</f>
         <v>100</v>
       </c>
-      <c r="BH3" s="4">
-        <f t="shared" ref="BH3:BH28" si="22">(PERCENTRANK(Z$3:Z$78,Z3))*100</f>
+      <c r="BI3" s="4">
+        <f t="shared" ref="BI3:BI28" si="22">(PERCENTRANK(Z$3:Z$78,Z3))*100</f>
         <v>57.8</v>
       </c>
-      <c r="BI3" s="4">
-        <f t="shared" ref="BI3:BI28" si="23">(PERCENTRANK(AA$3:AA$78,AA3))*100</f>
+      <c r="BJ3" s="4">
+        <f t="shared" ref="BJ3:BJ28" si="23">(PERCENTRANK(AA$3:AA$78,AA3))*100</f>
         <v>89.4</v>
       </c>
-      <c r="BJ3" s="4">
-        <f t="shared" ref="BJ3:BJ28" si="24">(PERCENTRANK(AB$3:AB$78,AB3))*100</f>
+      <c r="BK3" s="4">
+        <f t="shared" ref="BK3:BK28" si="24">(PERCENTRANK(AB$3:AB$78,AB3))*100</f>
         <v>89.4</v>
       </c>
-      <c r="BK3" s="4">
-        <f t="shared" ref="BK3:BK28" si="25">(PERCENTRANK(AC$3:AC$78,AC3))*100</f>
+      <c r="BL3" s="4">
+        <f t="shared" ref="BL3:BL28" si="25">(PERCENTRANK(AC$3:AC$78,AC3))*100</f>
         <v>94.699999999999989</v>
       </c>
-      <c r="BL3" s="4">
-        <f t="shared" ref="BL3:BL28" si="26">(PERCENTRANK(AD$3:AD$78,AD3))*100</f>
+      <c r="BM3" s="4">
+        <f t="shared" ref="BM3:BM28" si="26">(PERCENTRANK(AD$3:AD$78,AD3))*100</f>
         <v>92.100000000000009</v>
       </c>
-      <c r="BM3" s="4">
-        <f t="shared" ref="BM3:BM49" si="27">(PERCENTRANK(AI$3:AI$78,AI3))*100</f>
+      <c r="BN3" s="4">
+        <f t="shared" ref="BN3:BN41" si="27">(PERCENTRANK(AI$3:AI$78,AI3))*100</f>
         <v>94.699999999999989</v>
       </c>
-    </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO3" s="4">
+        <f>100-((PERCENTRANK(AJ$3:AJ$78,AJ3))*100)</f>
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -7682,35 +7700,35 @@
         <v>1.3</v>
       </c>
       <c r="W4" s="9">
-        <f t="shared" ref="W4:W49" si="28">F4-I4</f>
+        <f t="shared" ref="W4:W41" si="28">F4-I4</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="X4" s="9">
-        <f t="shared" ref="X4:X49" si="29">G4-J4</f>
+        <f t="shared" ref="X4:X41" si="29">G4-J4</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="Y4" s="9">
-        <f t="shared" ref="Y4:Y49" si="30">IF(X4=0,"0",(W4/X4)*100)</f>
+        <f t="shared" ref="Y4:Y41" si="30">IF(X4=0,"0",(W4/X4)*100)</f>
         <v>52.272727272727259</v>
       </c>
       <c r="Z4" s="6">
-        <f t="shared" ref="Z4:Z49" si="31">IF(U4=0,"0",R4/U4)</f>
+        <f t="shared" ref="Z4:Z41" si="31">IF(U4=0,"0",R4/U4)</f>
         <v>1.8124999999999998</v>
       </c>
       <c r="AA4" s="9">
-        <f t="shared" ref="AA4:AA49" si="32">100*(E4)/(2*(G4+0.44*M4))</f>
+        <f t="shared" ref="AA4:AA41" si="32">100*(E4)/(2*(G4+0.44*M4))</f>
         <v>61.988045162718613</v>
       </c>
       <c r="AB4" s="6">
-        <f t="shared" ref="AB4:AB49" si="33">2*AA4/100</f>
+        <f t="shared" ref="AB4:AB41" si="33">2*AA4/100</f>
         <v>1.2397609032543722</v>
       </c>
       <c r="AC4" s="6">
-        <f t="shared" ref="AC4:AC49" si="34">(E4)/(G4+0.44*M4+U4)</f>
+        <f t="shared" ref="AC4:AC41" si="34">(E4)/(G4+0.44*M4+U4)</f>
         <v>1.1389058368924139</v>
       </c>
       <c r="AD4" s="9">
-        <f t="shared" ref="AD4:AD49" si="35">100*(F4+0.5*I4)/(G4)</f>
+        <f t="shared" ref="AD4:AD41" si="35">100*(F4+0.5*I4)/(G4)</f>
         <v>54.970760233918121</v>
       </c>
       <c r="AE4" s="4">
@@ -7730,123 +7748,131 @@
         <v>107.13411755638408</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" ref="AI4:AI49" si="36">T4/V4</f>
+        <f t="shared" ref="AI4:AI41" si="36">T4/V4</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AJ4" s="9">
+        <f t="shared" ref="AJ4:AJ41" si="37">100*U4/(G4+0.44*M4+U4)</f>
+        <v>8.1350416920886701</v>
+      </c>
+      <c r="AM4" s="4">
         <f t="shared" si="0"/>
         <v>86.8</v>
       </c>
-      <c r="AM4" s="4">
+      <c r="AN4" s="4">
         <f t="shared" si="1"/>
         <v>97.3</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AO4" s="4">
         <f t="shared" si="2"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AP4" s="4">
         <f t="shared" si="3"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AQ4" s="4">
         <f t="shared" si="4"/>
         <v>55.2</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AR4" s="4">
         <f t="shared" si="5"/>
         <v>97.3</v>
       </c>
-      <c r="AR4" s="4">
+      <c r="AS4" s="4">
         <f t="shared" si="6"/>
         <v>97.3</v>
       </c>
-      <c r="AS4" s="4">
+      <c r="AT4" s="4">
         <f t="shared" si="7"/>
         <v>76.3</v>
       </c>
-      <c r="AT4" s="4">
+      <c r="AU4" s="4">
         <f t="shared" si="8"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="AU4" s="4">
+      <c r="AV4" s="4">
         <f t="shared" si="9"/>
         <v>84.2</v>
       </c>
-      <c r="AV4" s="4">
+      <c r="AW4" s="4">
         <f t="shared" si="10"/>
         <v>84.2</v>
       </c>
-      <c r="AW4" s="4">
+      <c r="AX4" s="4">
         <f t="shared" si="11"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="AX4" s="4">
+      <c r="AY4" s="4">
         <f t="shared" si="12"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="AY4" s="4">
+      <c r="AZ4" s="4">
         <f t="shared" si="13"/>
         <v>76.3</v>
       </c>
-      <c r="AZ4" s="4">
+      <c r="BA4" s="4">
         <f t="shared" si="14"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="BA4" s="4">
+      <c r="BB4" s="4">
         <f t="shared" si="15"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="BB4" s="4">
+      <c r="BC4" s="4">
         <f t="shared" si="16"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="BC4" s="4">
+      <c r="BD4" s="4">
         <f t="shared" si="17"/>
         <v>44.8</v>
       </c>
-      <c r="BD4" s="4">
+      <c r="BE4" s="4">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="BE4" s="4">
+      <c r="BF4" s="4">
         <f t="shared" si="19"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="BF4" s="4">
+      <c r="BG4" s="4">
         <f t="shared" si="20"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="BG4" s="4">
+      <c r="BH4" s="4">
         <f t="shared" si="21"/>
         <v>65.7</v>
       </c>
-      <c r="BH4" s="4">
+      <c r="BI4" s="4">
         <f t="shared" si="22"/>
         <v>63.1</v>
       </c>
-      <c r="BI4" s="4">
+      <c r="BJ4" s="4">
         <f t="shared" si="23"/>
         <v>76.3</v>
       </c>
-      <c r="BJ4" s="4">
+      <c r="BK4" s="4">
         <f t="shared" si="24"/>
         <v>76.3</v>
       </c>
-      <c r="BK4" s="4">
+      <c r="BL4" s="4">
         <f t="shared" si="25"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="BL4" s="4">
+      <c r="BM4" s="4">
         <f t="shared" si="26"/>
         <v>76.3</v>
       </c>
-      <c r="BM4" s="4">
+      <c r="BN4" s="4">
         <f t="shared" si="27"/>
         <v>63.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO4" s="4">
+        <f t="shared" ref="BO4:BO41" si="38">100-((PERCENTRANK(AJ$3:AJ$78,AJ4))*100)</f>
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -7965,120 +7991,128 @@
         <f t="shared" si="36"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AJ5" s="9">
+        <f t="shared" si="37"/>
+        <v>12.960562858729864</v>
+      </c>
+      <c r="AM5" s="4">
         <f t="shared" si="0"/>
         <v>97.3</v>
       </c>
-      <c r="AM5" s="4">
+      <c r="AN5" s="4">
         <f t="shared" si="1"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AO5" s="4">
         <f t="shared" si="2"/>
         <v>97.3</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AP5" s="4">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AQ5" s="4">
         <f t="shared" si="4"/>
         <v>52.6</v>
       </c>
-      <c r="AQ5" s="4">
+      <c r="AR5" s="4">
         <f t="shared" si="5"/>
         <v>89.4</v>
       </c>
-      <c r="AR5" s="4">
+      <c r="AS5" s="4">
         <f t="shared" si="6"/>
         <v>86.8</v>
       </c>
-      <c r="AS5" s="4">
+      <c r="AT5" s="4">
         <f t="shared" si="7"/>
         <v>86.8</v>
       </c>
-      <c r="AT5" s="4">
+      <c r="AU5" s="4">
         <f t="shared" si="8"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="AU5" s="4">
+      <c r="AV5" s="4">
         <f t="shared" si="9"/>
         <v>65.7</v>
       </c>
-      <c r="AV5" s="4">
+      <c r="AW5" s="4">
         <f t="shared" si="10"/>
         <v>81.5</v>
       </c>
-      <c r="AW5" s="4">
+      <c r="AX5" s="4">
         <f t="shared" si="11"/>
         <v>52.6</v>
       </c>
-      <c r="AX5" s="4">
+      <c r="AY5" s="4">
         <f t="shared" si="12"/>
         <v>55.2</v>
       </c>
-      <c r="AY5" s="4">
+      <c r="AZ5" s="4">
         <f t="shared" si="13"/>
         <v>55.2</v>
       </c>
-      <c r="AZ5" s="4">
+      <c r="BA5" s="4">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BA5" s="4">
+      <c r="BB5" s="4">
         <f t="shared" si="15"/>
         <v>89.4</v>
       </c>
-      <c r="BB5" s="4">
+      <c r="BC5" s="4">
         <f t="shared" si="16"/>
         <v>60.5</v>
       </c>
-      <c r="BC5" s="4">
+      <c r="BD5" s="4">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BD5" s="4">
+      <c r="BE5" s="4">
         <f t="shared" si="18"/>
         <v>52.7</v>
       </c>
-      <c r="BE5" s="4">
+      <c r="BF5" s="4">
         <f t="shared" si="19"/>
         <v>84.2</v>
       </c>
-      <c r="BF5" s="4">
+      <c r="BG5" s="4">
         <f t="shared" si="20"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="BG5" s="4">
+      <c r="BH5" s="4">
         <f t="shared" si="21"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="BH5" s="4">
+      <c r="BI5" s="4">
         <f t="shared" si="22"/>
         <v>65.7</v>
       </c>
-      <c r="BI5" s="4">
+      <c r="BJ5" s="4">
         <f t="shared" si="23"/>
         <v>65.7</v>
       </c>
-      <c r="BJ5" s="4">
+      <c r="BK5" s="4">
         <f t="shared" si="24"/>
         <v>65.7</v>
       </c>
-      <c r="BK5" s="4">
+      <c r="BL5" s="4">
         <f t="shared" si="25"/>
         <v>55.2</v>
       </c>
-      <c r="BL5" s="4">
+      <c r="BM5" s="4">
         <f t="shared" si="26"/>
         <v>71</v>
       </c>
-      <c r="BM5" s="4">
+      <c r="BN5" s="4">
         <f t="shared" si="27"/>
         <v>65.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO5" s="4">
+        <f t="shared" si="38"/>
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -8197,120 +8231,128 @@
         <f t="shared" si="36"/>
         <v>0.34375</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AJ6" s="9">
+        <f t="shared" si="37"/>
+        <v>8.0305159606504724</v>
+      </c>
+      <c r="AM6" s="4">
         <f t="shared" si="0"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AN6" s="4">
         <f t="shared" si="1"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AO6" s="4">
         <f t="shared" si="2"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AP6" s="4">
         <f t="shared" si="3"/>
         <v>97.3</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AQ6" s="4">
         <f t="shared" si="4"/>
         <v>15.7</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AR6" s="4">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AS6" s="4">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AT6" s="4">
         <f t="shared" si="7"/>
         <v>65.7</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AU6" s="4">
         <f t="shared" si="8"/>
         <v>84.2</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="AV6" s="4">
         <f t="shared" si="9"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="AV6" s="4">
+      <c r="AW6" s="4">
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="AW6" s="4">
+      <c r="AX6" s="4">
         <f t="shared" si="11"/>
         <v>65.7</v>
       </c>
-      <c r="AX6" s="4">
+      <c r="AY6" s="4">
         <f t="shared" si="12"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="AY6" s="4">
+      <c r="AZ6" s="4">
         <f t="shared" si="13"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="AZ6" s="4">
+      <c r="BA6" s="4">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="BA6" s="4">
+      <c r="BB6" s="4">
         <f t="shared" si="15"/>
         <v>81.5</v>
       </c>
-      <c r="BB6" s="4">
+      <c r="BC6" s="4">
         <f t="shared" si="16"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="BC6" s="4">
+      <c r="BD6" s="4">
         <f t="shared" si="17"/>
         <v>44.8</v>
       </c>
-      <c r="BD6" s="4">
+      <c r="BE6" s="4">
         <f t="shared" si="18"/>
         <v>13.200000000000003</v>
       </c>
-      <c r="BE6" s="4">
+      <c r="BF6" s="4">
         <f t="shared" si="19"/>
         <v>47.3</v>
       </c>
-      <c r="BF6" s="4">
+      <c r="BG6" s="4">
         <f t="shared" si="20"/>
         <v>57.8</v>
       </c>
-      <c r="BG6" s="4">
+      <c r="BH6" s="4">
         <f t="shared" si="21"/>
         <v>5.2</v>
       </c>
-      <c r="BH6" s="4">
+      <c r="BI6" s="4">
         <f t="shared" si="22"/>
         <v>47.3</v>
       </c>
-      <c r="BI6" s="4">
+      <c r="BJ6" s="4">
         <f t="shared" si="23"/>
         <v>63.1</v>
       </c>
-      <c r="BJ6" s="4">
+      <c r="BK6" s="4">
         <f t="shared" si="24"/>
         <v>63.1</v>
       </c>
-      <c r="BK6" s="4">
+      <c r="BL6" s="4">
         <f t="shared" si="25"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="BL6" s="4">
+      <c r="BM6" s="4">
         <f t="shared" si="26"/>
         <v>42.1</v>
       </c>
-      <c r="BM6" s="4">
+      <c r="BN6" s="4">
         <f t="shared" si="27"/>
         <v>86.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO6" s="4">
+        <f t="shared" si="38"/>
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -8429,120 +8471,128 @@
         <f t="shared" si="36"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AJ7" s="9">
+        <f t="shared" si="37"/>
+        <v>11.66044776119403</v>
+      </c>
+      <c r="AM7" s="4">
         <f t="shared" si="0"/>
         <v>81.5</v>
       </c>
-      <c r="AM7" s="4">
+      <c r="AN7" s="4">
         <f t="shared" si="1"/>
         <v>89.4</v>
       </c>
-      <c r="AN7" s="4">
+      <c r="AO7" s="4">
         <f t="shared" si="2"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="AO7" s="4">
+      <c r="AP7" s="4">
         <f t="shared" si="3"/>
         <v>76.3</v>
       </c>
-      <c r="AP7" s="4">
+      <c r="AQ7" s="4">
         <f t="shared" si="4"/>
         <v>89.4</v>
       </c>
-      <c r="AQ7" s="4">
+      <c r="AR7" s="4">
         <f t="shared" si="5"/>
         <v>47.3</v>
       </c>
-      <c r="AR7" s="4">
+      <c r="AS7" s="4">
         <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
-      <c r="AS7" s="4">
+      <c r="AT7" s="4">
         <f t="shared" si="7"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="AT7" s="4">
+      <c r="AU7" s="4">
         <f t="shared" si="8"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="AU7" s="4">
+      <c r="AV7" s="4">
         <f t="shared" si="9"/>
         <v>97.3</v>
       </c>
-      <c r="AV7" s="4">
+      <c r="AW7" s="4">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="AW7" s="4">
+      <c r="AX7" s="4">
         <f t="shared" si="11"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="AX7" s="4">
+      <c r="AY7" s="4">
         <f t="shared" si="12"/>
         <v>89.4</v>
       </c>
-      <c r="AY7" s="4">
+      <c r="AZ7" s="4">
         <f t="shared" si="13"/>
         <v>89.4</v>
       </c>
-      <c r="AZ7" s="4">
+      <c r="BA7" s="4">
         <f t="shared" si="14"/>
         <v>55.2</v>
       </c>
-      <c r="BA7" s="4">
+      <c r="BB7" s="4">
         <f t="shared" si="15"/>
         <v>89.4</v>
       </c>
-      <c r="BB7" s="4">
+      <c r="BC7" s="4">
         <f t="shared" si="16"/>
         <v>44.7</v>
       </c>
-      <c r="BC7" s="4">
+      <c r="BD7" s="4">
         <f t="shared" si="17"/>
         <v>15.799999999999997</v>
       </c>
-      <c r="BD7" s="4">
+      <c r="BE7" s="4">
         <f t="shared" si="18"/>
         <v>23.700000000000003</v>
       </c>
-      <c r="BE7" s="4">
+      <c r="BF7" s="4">
         <f t="shared" si="19"/>
         <v>97.3</v>
       </c>
-      <c r="BF7" s="4">
+      <c r="BG7" s="4">
         <f t="shared" si="20"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="BG7" s="4">
+      <c r="BH7" s="4">
         <f t="shared" si="21"/>
         <v>86.8</v>
       </c>
-      <c r="BH7" s="4">
+      <c r="BI7" s="4">
         <f t="shared" si="22"/>
         <v>39.4</v>
       </c>
-      <c r="BI7" s="4">
+      <c r="BJ7" s="4">
         <f t="shared" si="23"/>
         <v>86.8</v>
       </c>
-      <c r="BJ7" s="4">
+      <c r="BK7" s="4">
         <f t="shared" si="24"/>
         <v>86.8</v>
       </c>
-      <c r="BK7" s="4">
+      <c r="BL7" s="4">
         <f t="shared" si="25"/>
         <v>84.2</v>
       </c>
-      <c r="BL7" s="4">
+      <c r="BM7" s="4">
         <f t="shared" si="26"/>
         <v>86.8</v>
       </c>
-      <c r="BM7" s="4">
+      <c r="BN7" s="4">
         <f t="shared" si="27"/>
         <v>39.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO7" s="4">
+        <f t="shared" si="38"/>
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -8661,120 +8711,128 @@
         <f t="shared" si="36"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AJ8" s="9">
+        <f t="shared" si="37"/>
+        <v>8.9456106870229011</v>
+      </c>
+      <c r="AM8" s="4">
         <f t="shared" si="0"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="AM8" s="4">
+      <c r="AN8" s="4">
         <f t="shared" si="1"/>
         <v>86.8</v>
       </c>
-      <c r="AN8" s="4">
+      <c r="AO8" s="4">
         <f t="shared" si="2"/>
         <v>76.3</v>
       </c>
-      <c r="AO8" s="4">
+      <c r="AP8" s="4">
         <f t="shared" si="3"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="AP8" s="4">
+      <c r="AQ8" s="4">
         <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
-      <c r="AQ8" s="4">
+      <c r="AR8" s="4">
         <f t="shared" si="5"/>
         <v>84.2</v>
       </c>
-      <c r="AR8" s="4">
+      <c r="AS8" s="4">
         <f t="shared" si="6"/>
         <v>89.4</v>
       </c>
-      <c r="AS8" s="4">
+      <c r="AT8" s="4">
         <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="AT8" s="4">
+      <c r="AU8" s="4">
         <f t="shared" si="8"/>
         <v>89.4</v>
       </c>
-      <c r="AU8" s="4">
+      <c r="AV8" s="4">
         <f t="shared" si="9"/>
         <v>84.2</v>
       </c>
-      <c r="AV8" s="4">
+      <c r="AW8" s="4">
         <f t="shared" si="10"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="AW8" s="4">
+      <c r="AX8" s="4">
         <f t="shared" si="11"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="AX8" s="4">
+      <c r="AY8" s="4">
         <f t="shared" si="12"/>
         <v>76.3</v>
       </c>
-      <c r="AY8" s="4">
+      <c r="AZ8" s="4">
         <f t="shared" si="13"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="AZ8" s="4">
+      <c r="BA8" s="4">
         <f t="shared" si="14"/>
         <v>63.1</v>
       </c>
-      <c r="BA8" s="4">
+      <c r="BB8" s="4">
         <f t="shared" si="15"/>
         <v>81.5</v>
       </c>
-      <c r="BB8" s="4">
+      <c r="BC8" s="4">
         <f t="shared" si="16"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BC8" s="4">
+      <c r="BD8" s="4">
         <f t="shared" si="17"/>
         <v>52.7</v>
       </c>
-      <c r="BD8" s="4">
+      <c r="BE8" s="4">
         <f t="shared" si="18"/>
         <v>15.799999999999997</v>
       </c>
-      <c r="BE8" s="4">
+      <c r="BF8" s="4">
         <f t="shared" si="19"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="BF8" s="4">
+      <c r="BG8" s="4">
         <f t="shared" si="20"/>
         <v>60.5</v>
       </c>
-      <c r="BG8" s="4">
+      <c r="BH8" s="4">
         <f t="shared" si="21"/>
         <v>71</v>
       </c>
-      <c r="BH8" s="4">
+      <c r="BI8" s="4">
         <f t="shared" si="22"/>
         <v>60.5</v>
       </c>
-      <c r="BI8" s="4">
+      <c r="BJ8" s="4">
         <f t="shared" si="23"/>
         <v>81.5</v>
       </c>
-      <c r="BJ8" s="4">
+      <c r="BK8" s="4">
         <f t="shared" si="24"/>
         <v>81.5</v>
       </c>
-      <c r="BK8" s="4">
+      <c r="BL8" s="4">
         <f t="shared" si="25"/>
         <v>81.5</v>
       </c>
-      <c r="BL8" s="4">
+      <c r="BM8" s="4">
         <f t="shared" si="26"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="BM8" s="4">
+      <c r="BN8" s="4">
         <f t="shared" si="27"/>
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO8" s="4">
+        <f t="shared" si="38"/>
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -8893,120 +8951,128 @@
         <f t="shared" si="36"/>
         <v>0.57894736842105265</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AJ9" s="9">
+        <f t="shared" si="37"/>
+        <v>7.896399241945673</v>
+      </c>
+      <c r="AM9" s="4">
         <f t="shared" si="0"/>
         <v>84.2</v>
       </c>
-      <c r="AM9" s="4">
+      <c r="AN9" s="4">
         <f t="shared" si="1"/>
         <v>84.2</v>
       </c>
-      <c r="AN9" s="4">
+      <c r="AO9" s="4">
         <f t="shared" si="2"/>
         <v>86.8</v>
       </c>
-      <c r="AO9" s="4">
+      <c r="AP9" s="4">
         <f t="shared" si="3"/>
         <v>89.4</v>
       </c>
-      <c r="AP9" s="4">
+      <c r="AQ9" s="4">
         <f t="shared" si="4"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="AQ9" s="4">
+      <c r="AR9" s="4">
         <f t="shared" si="5"/>
         <v>28.9</v>
       </c>
-      <c r="AR9" s="4">
+      <c r="AS9" s="4">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="AS9" s="4">
+      <c r="AT9" s="4">
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="AT9" s="4">
+      <c r="AU9" s="4">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="AU9" s="4">
+      <c r="AV9" s="4">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="AV9" s="4">
+      <c r="AW9" s="4">
         <f t="shared" si="10"/>
         <v>55.2</v>
       </c>
-      <c r="AW9" s="4">
+      <c r="AX9" s="4">
         <f t="shared" si="11"/>
         <v>65.7</v>
       </c>
-      <c r="AX9" s="4">
+      <c r="AY9" s="4">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="AY9" s="4">
+      <c r="AZ9" s="4">
         <f t="shared" si="13"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="AZ9" s="4">
+      <c r="BA9" s="4">
         <f t="shared" si="14"/>
         <v>76.3</v>
       </c>
-      <c r="BA9" s="4">
+      <c r="BB9" s="4">
         <f t="shared" si="15"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="BB9" s="4">
+      <c r="BC9" s="4">
         <f t="shared" si="16"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="BC9" s="4">
+      <c r="BD9" s="4">
         <f t="shared" si="17"/>
         <v>52.7</v>
       </c>
-      <c r="BD9" s="4">
+      <c r="BE9" s="4">
         <f t="shared" si="18"/>
         <v>76.400000000000006</v>
       </c>
-      <c r="BE9" s="4">
+      <c r="BF9" s="4">
         <f t="shared" si="19"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="BF9" s="4">
+      <c r="BG9" s="4">
         <f t="shared" si="20"/>
         <v>97.3</v>
       </c>
-      <c r="BG9" s="4">
+      <c r="BH9" s="4">
         <f t="shared" si="21"/>
         <v>44.7</v>
       </c>
-      <c r="BH9" s="4">
+      <c r="BI9" s="4">
         <f t="shared" si="22"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="BI9" s="4">
+      <c r="BJ9" s="4">
         <f t="shared" si="23"/>
         <v>52.6</v>
       </c>
-      <c r="BJ9" s="4">
+      <c r="BK9" s="4">
         <f t="shared" si="24"/>
         <v>52.6</v>
       </c>
-      <c r="BK9" s="4">
+      <c r="BL9" s="4">
         <f t="shared" si="25"/>
         <v>65.7</v>
       </c>
-      <c r="BL9" s="4">
+      <c r="BM9" s="4">
         <f t="shared" si="26"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="BM9" s="4">
+      <c r="BN9" s="4">
         <f t="shared" si="27"/>
         <v>97.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO9" s="4">
+        <f t="shared" si="38"/>
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -9125,120 +9191,128 @@
         <f t="shared" si="36"/>
         <v>0.11111111111111112</v>
       </c>
-      <c r="AL10" s="4">
+      <c r="AJ10" s="9">
+        <f t="shared" si="37"/>
+        <v>9.2431491953023048</v>
+      </c>
+      <c r="AM10" s="4">
         <f t="shared" si="0"/>
         <v>86.8</v>
       </c>
-      <c r="AM10" s="4">
+      <c r="AN10" s="4">
         <f t="shared" si="1"/>
         <v>81.5</v>
       </c>
-      <c r="AN10" s="4">
+      <c r="AO10" s="4">
         <f t="shared" si="2"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="AO10" s="4">
+      <c r="AP10" s="4">
         <f t="shared" si="3"/>
         <v>86.8</v>
       </c>
-      <c r="AP10" s="4">
+      <c r="AQ10" s="4">
         <f t="shared" si="4"/>
         <v>26.3</v>
       </c>
-      <c r="AQ10" s="4">
+      <c r="AR10" s="4">
         <f t="shared" si="5"/>
         <v>89.4</v>
       </c>
-      <c r="AR10" s="4">
+      <c r="AS10" s="4">
         <f t="shared" si="6"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="AS10" s="4">
+      <c r="AT10" s="4">
         <f t="shared" si="7"/>
         <v>63.1</v>
       </c>
-      <c r="AT10" s="4">
+      <c r="AU10" s="4">
         <f t="shared" si="8"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="AU10" s="4">
+      <c r="AV10" s="4">
         <f t="shared" si="9"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="AV10" s="4">
+      <c r="AW10" s="4">
         <f t="shared" si="10"/>
         <v>65.7</v>
       </c>
-      <c r="AW10" s="4">
+      <c r="AX10" s="4">
         <f t="shared" si="11"/>
         <v>81.5</v>
       </c>
-      <c r="AX10" s="4">
+      <c r="AY10" s="4">
         <f t="shared" si="12"/>
         <v>81.5</v>
       </c>
-      <c r="AY10" s="4">
+      <c r="AZ10" s="4">
         <f t="shared" si="13"/>
         <v>84.2</v>
       </c>
-      <c r="AZ10" s="4">
+      <c r="BA10" s="4">
         <f t="shared" si="14"/>
         <v>86.8</v>
       </c>
-      <c r="BA10" s="4">
+      <c r="BB10" s="4">
         <f t="shared" si="15"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="BB10" s="4">
+      <c r="BC10" s="4">
         <f t="shared" si="16"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="BC10" s="4">
+      <c r="BD10" s="4">
         <f t="shared" si="17"/>
         <v>36.9</v>
       </c>
-      <c r="BD10" s="4">
+      <c r="BE10" s="4">
         <f t="shared" si="18"/>
         <v>92.2</v>
       </c>
-      <c r="BE10" s="4">
+      <c r="BF10" s="4">
         <f t="shared" si="19"/>
         <v>60.5</v>
       </c>
-      <c r="BF10" s="4">
+      <c r="BG10" s="4">
         <f t="shared" si="20"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="BG10" s="4">
+      <c r="BH10" s="4">
         <f t="shared" si="21"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="BH10" s="4">
+      <c r="BI10" s="4">
         <f t="shared" si="22"/>
         <v>71</v>
       </c>
-      <c r="BI10" s="4">
+      <c r="BJ10" s="4">
         <f t="shared" si="23"/>
         <v>50</v>
       </c>
-      <c r="BJ10" s="4">
+      <c r="BK10" s="4">
         <f t="shared" si="24"/>
         <v>50</v>
       </c>
-      <c r="BK10" s="4">
+      <c r="BL10" s="4">
         <f t="shared" si="25"/>
         <v>52.6</v>
       </c>
-      <c r="BL10" s="4">
+      <c r="BM10" s="4">
         <f t="shared" si="26"/>
         <v>50</v>
       </c>
-      <c r="BM10" s="4">
+      <c r="BN10" s="4">
         <f t="shared" si="27"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO10" s="4">
+        <f t="shared" si="38"/>
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -9357,120 +9431,128 @@
         <f t="shared" si="36"/>
         <v>0.11764705882352942</v>
       </c>
-      <c r="AL11" s="4">
+      <c r="AJ11" s="9">
+        <f t="shared" si="37"/>
+        <v>9.0767634854771782</v>
+      </c>
+      <c r="AM11" s="4">
         <f t="shared" si="0"/>
         <v>76.3</v>
       </c>
-      <c r="AM11" s="4">
+      <c r="AN11" s="4">
         <f t="shared" si="1"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="AN11" s="4">
+      <c r="AO11" s="4">
         <f t="shared" si="2"/>
         <v>81.5</v>
       </c>
-      <c r="AO11" s="4">
+      <c r="AP11" s="4">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="AP11" s="4">
+      <c r="AQ11" s="4">
         <f t="shared" si="4"/>
         <v>81.5</v>
       </c>
-      <c r="AQ11" s="4">
+      <c r="AR11" s="4">
         <f t="shared" si="5"/>
         <v>63.1</v>
       </c>
-      <c r="AR11" s="4">
+      <c r="AS11" s="4">
         <f t="shared" si="6"/>
         <v>63.1</v>
       </c>
-      <c r="AS11" s="4">
+      <c r="AT11" s="4">
         <f t="shared" si="7"/>
         <v>44.7</v>
       </c>
-      <c r="AT11" s="4">
+      <c r="AU11" s="4">
         <f t="shared" si="8"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="AU11" s="4">
+      <c r="AV11" s="4">
         <f t="shared" si="9"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="AV11" s="4">
+      <c r="AW11" s="4">
         <f t="shared" si="10"/>
         <v>57.8</v>
       </c>
-      <c r="AW11" s="4">
+      <c r="AX11" s="4">
         <f t="shared" si="11"/>
         <v>65.7</v>
       </c>
-      <c r="AX11" s="4">
+      <c r="AY11" s="4">
         <f t="shared" si="12"/>
         <v>5.2</v>
       </c>
-      <c r="AY11" s="4">
+      <c r="AZ11" s="4">
         <f t="shared" si="13"/>
         <v>7.8</v>
       </c>
-      <c r="AZ11" s="4">
+      <c r="BA11" s="4">
         <f t="shared" si="14"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="BA11" s="4">
+      <c r="BB11" s="4">
         <f t="shared" si="15"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="BB11" s="4">
+      <c r="BC11" s="4">
         <f t="shared" si="16"/>
         <v>60.5</v>
       </c>
-      <c r="BC11" s="4">
+      <c r="BD11" s="4">
         <f t="shared" si="17"/>
         <v>63.2</v>
       </c>
-      <c r="BD11" s="4">
+      <c r="BE11" s="4">
         <f t="shared" si="18"/>
         <v>10.599999999999994</v>
       </c>
-      <c r="BE11" s="4">
+      <c r="BF11" s="4">
         <f t="shared" si="19"/>
         <v>86.8</v>
       </c>
-      <c r="BF11" s="4">
+      <c r="BG11" s="4">
         <f t="shared" si="20"/>
         <v>76.3</v>
       </c>
-      <c r="BG11" s="4">
+      <c r="BH11" s="4">
         <f t="shared" si="21"/>
         <v>89.4</v>
       </c>
-      <c r="BH11" s="4">
+      <c r="BI11" s="4">
         <f t="shared" si="22"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="BI11" s="4">
+      <c r="BJ11" s="4">
         <f t="shared" si="23"/>
         <v>84.2</v>
       </c>
-      <c r="BJ11" s="4">
+      <c r="BK11" s="4">
         <f t="shared" si="24"/>
         <v>84.2</v>
       </c>
-      <c r="BK11" s="4">
+      <c r="BL11" s="4">
         <f t="shared" si="25"/>
         <v>86.8</v>
       </c>
-      <c r="BL11" s="4">
+      <c r="BM11" s="4">
         <f t="shared" si="26"/>
         <v>81.5</v>
       </c>
-      <c r="BM11" s="4">
+      <c r="BN11" s="4">
         <f t="shared" si="27"/>
         <v>52.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO11" s="4">
+        <f t="shared" si="38"/>
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -9589,120 +9671,128 @@
         <f t="shared" si="36"/>
         <v>0.72222222222222221</v>
       </c>
-      <c r="AL12" s="4">
+      <c r="AJ12" s="9">
+        <f t="shared" si="37"/>
+        <v>12.630014858841012</v>
+      </c>
+      <c r="AM12" s="4">
         <f t="shared" si="0"/>
         <v>65.7</v>
       </c>
-      <c r="AM12" s="4">
+      <c r="AN12" s="4">
         <f t="shared" si="1"/>
         <v>76.3</v>
       </c>
-      <c r="AN12" s="4">
+      <c r="AO12" s="4">
         <f t="shared" si="2"/>
         <v>89.4</v>
       </c>
-      <c r="AO12" s="4">
+      <c r="AP12" s="4">
         <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
-      <c r="AP12" s="4">
+      <c r="AQ12" s="4">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="AQ12" s="4">
+      <c r="AR12" s="4">
         <f t="shared" si="5"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="AR12" s="4">
+      <c r="AS12" s="4">
         <f t="shared" si="6"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="AS12" s="4">
+      <c r="AT12" s="4">
         <f t="shared" si="7"/>
         <v>97.3</v>
       </c>
-      <c r="AT12" s="4">
+      <c r="AU12" s="4">
         <f t="shared" si="8"/>
         <v>52.6</v>
       </c>
-      <c r="AU12" s="4">
+      <c r="AV12" s="4">
         <f t="shared" si="9"/>
         <v>55.2</v>
       </c>
-      <c r="AV12" s="4">
+      <c r="AW12" s="4">
         <f t="shared" si="10"/>
         <v>47.3</v>
       </c>
-      <c r="AW12" s="4">
+      <c r="AX12" s="4">
         <f t="shared" si="11"/>
         <v>44.7</v>
       </c>
-      <c r="AX12" s="4">
+      <c r="AY12" s="4">
         <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="AY12" s="4">
+      <c r="AZ12" s="4">
         <f t="shared" si="13"/>
         <v>76.3</v>
       </c>
-      <c r="AZ12" s="4">
+      <c r="BA12" s="4">
         <f t="shared" si="14"/>
         <v>26.3</v>
       </c>
-      <c r="BA12" s="4">
+      <c r="BB12" s="4">
         <f t="shared" si="15"/>
         <v>10.5</v>
       </c>
-      <c r="BB12" s="4">
+      <c r="BC12" s="4">
         <f t="shared" si="16"/>
         <v>97.3</v>
       </c>
-      <c r="BC12" s="4">
+      <c r="BD12" s="4">
         <f t="shared" si="17"/>
         <v>36.9</v>
       </c>
-      <c r="BD12" s="4">
+      <c r="BE12" s="4">
         <f t="shared" si="18"/>
         <v>92.2</v>
       </c>
-      <c r="BE12" s="4">
+      <c r="BF12" s="4">
         <f t="shared" si="19"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="BF12" s="4">
+      <c r="BG12" s="4">
         <f t="shared" si="20"/>
         <v>86.8</v>
       </c>
-      <c r="BG12" s="4">
+      <c r="BH12" s="4">
         <f t="shared" si="21"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="BH12" s="4">
+      <c r="BI12" s="4">
         <f t="shared" si="22"/>
         <v>21</v>
       </c>
-      <c r="BI12" s="4">
+      <c r="BJ12" s="4">
         <f t="shared" si="23"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="BJ12" s="4">
+      <c r="BK12" s="4">
         <f t="shared" si="24"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="BK12" s="4">
+      <c r="BL12" s="4">
         <f t="shared" si="25"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="BL12" s="4">
+      <c r="BM12" s="4">
         <f t="shared" si="26"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="BM12" s="4">
+      <c r="BN12" s="4">
         <f t="shared" si="27"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO12" s="4">
+        <f t="shared" si="38"/>
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -9821,120 +9911,128 @@
         <f t="shared" si="36"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="AL13" s="4">
+      <c r="AJ13" s="9">
+        <f t="shared" si="37"/>
+        <v>11.233430689732643</v>
+      </c>
+      <c r="AM13" s="4">
         <f t="shared" si="0"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="AM13" s="4">
+      <c r="AN13" s="4">
         <f t="shared" si="1"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="AN13" s="4">
+      <c r="AO13" s="4">
         <f t="shared" si="2"/>
         <v>81.5</v>
       </c>
-      <c r="AO13" s="4">
+      <c r="AP13" s="4">
         <f t="shared" si="3"/>
         <v>81.5</v>
       </c>
-      <c r="AP13" s="4">
+      <c r="AQ13" s="4">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="AQ13" s="4">
+      <c r="AR13" s="4">
         <f t="shared" si="5"/>
         <v>52.6</v>
       </c>
-      <c r="AR13" s="4">
+      <c r="AS13" s="4">
         <f t="shared" si="6"/>
         <v>63.1</v>
       </c>
-      <c r="AS13" s="4">
+      <c r="AT13" s="4">
         <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
-      <c r="AT13" s="4">
+      <c r="AU13" s="4">
         <f t="shared" si="8"/>
         <v>44.7</v>
       </c>
-      <c r="AU13" s="4">
+      <c r="AV13" s="4">
         <f t="shared" si="9"/>
         <v>65.7</v>
       </c>
-      <c r="AV13" s="4">
+      <c r="AW13" s="4">
         <f t="shared" si="10"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="AW13" s="4">
+      <c r="AX13" s="4">
         <f t="shared" si="11"/>
         <v>52.6</v>
       </c>
-      <c r="AX13" s="4">
+      <c r="AY13" s="4">
         <f t="shared" si="12"/>
         <v>86.8</v>
       </c>
-      <c r="AY13" s="4">
+      <c r="AZ13" s="4">
         <f t="shared" si="13"/>
         <v>81.5</v>
       </c>
-      <c r="AZ13" s="4">
+      <c r="BA13" s="4">
         <f t="shared" si="14"/>
         <v>7.8</v>
       </c>
-      <c r="BA13" s="4">
+      <c r="BB13" s="4">
         <f t="shared" si="15"/>
         <v>55.2</v>
       </c>
-      <c r="BB13" s="4">
+      <c r="BC13" s="4">
         <f t="shared" si="16"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BC13" s="4">
+      <c r="BD13" s="4">
         <f t="shared" si="17"/>
         <v>15.799999999999997</v>
       </c>
-      <c r="BD13" s="4">
+      <c r="BE13" s="4">
         <f t="shared" si="18"/>
         <v>29</v>
       </c>
-      <c r="BE13" s="4">
+      <c r="BF13" s="4">
         <f t="shared" si="19"/>
         <v>89.4</v>
       </c>
-      <c r="BF13" s="4">
+      <c r="BG13" s="4">
         <f t="shared" si="20"/>
         <v>89.4</v>
       </c>
-      <c r="BG13" s="4">
+      <c r="BH13" s="4">
         <f t="shared" si="21"/>
         <v>63.1</v>
       </c>
-      <c r="BH13" s="4">
+      <c r="BI13" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="BI13" s="4">
+      <c r="BJ13" s="4">
         <f t="shared" si="23"/>
         <v>28.9</v>
       </c>
-      <c r="BJ13" s="4">
+      <c r="BK13" s="4">
         <f t="shared" si="24"/>
         <v>28.9</v>
       </c>
-      <c r="BK13" s="4">
+      <c r="BL13" s="4">
         <f t="shared" si="25"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="BL13" s="4">
+      <c r="BM13" s="4">
         <f t="shared" si="26"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="BM13" s="4">
+      <c r="BN13" s="4">
         <f t="shared" si="27"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO13" s="4">
+        <f t="shared" si="38"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -10053,120 +10151,128 @@
         <f t="shared" si="36"/>
         <v>3.5714285714285719E-2</v>
       </c>
-      <c r="AL14" s="4">
+      <c r="AJ14" s="9">
+        <f t="shared" si="37"/>
+        <v>9.7465886939571149</v>
+      </c>
+      <c r="AM14" s="4">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="AM14" s="4">
+      <c r="AN14" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="AN14" s="4">
+      <c r="AO14" s="4">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="AO14" s="4">
+      <c r="AP14" s="4">
         <f t="shared" si="3"/>
         <v>84.2</v>
       </c>
-      <c r="AP14" s="4">
+      <c r="AQ14" s="4">
         <f t="shared" si="4"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="AQ14" s="4">
+      <c r="AR14" s="4">
         <f t="shared" si="5"/>
         <v>76.3</v>
       </c>
-      <c r="AR14" s="4">
+      <c r="AS14" s="4">
         <f t="shared" si="6"/>
         <v>84.2</v>
       </c>
-      <c r="AS14" s="4">
+      <c r="AT14" s="4">
         <f t="shared" si="7"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="AT14" s="4">
+      <c r="AU14" s="4">
         <f t="shared" si="8"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="AU14" s="4">
+      <c r="AV14" s="4">
         <f t="shared" si="9"/>
         <v>84.2</v>
       </c>
-      <c r="AV14" s="4">
+      <c r="AW14" s="4">
         <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
-      <c r="AW14" s="4">
+      <c r="AX14" s="4">
         <f t="shared" si="11"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="AX14" s="4">
+      <c r="AY14" s="4">
         <f t="shared" si="12"/>
         <v>63.1</v>
       </c>
-      <c r="AY14" s="4">
+      <c r="AZ14" s="4">
         <f t="shared" si="13"/>
         <v>60.5</v>
       </c>
-      <c r="AZ14" s="4">
+      <c r="BA14" s="4">
         <f t="shared" si="14"/>
         <v>60.5</v>
       </c>
-      <c r="BA14" s="4">
+      <c r="BB14" s="4">
         <f t="shared" si="15"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="BB14" s="4">
+      <c r="BC14" s="4">
         <f t="shared" si="16"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BC14" s="4">
+      <c r="BD14" s="4">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
-      <c r="BD14" s="4">
+      <c r="BE14" s="4">
         <f t="shared" si="18"/>
         <v>34.299999999999997</v>
       </c>
-      <c r="BE14" s="4">
+      <c r="BF14" s="4">
         <f t="shared" si="19"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="BF14" s="4">
+      <c r="BG14" s="4">
         <f t="shared" si="20"/>
         <v>84.2</v>
       </c>
-      <c r="BG14" s="4">
+      <c r="BH14" s="4">
         <f t="shared" si="21"/>
         <v>31.5</v>
       </c>
-      <c r="BH14" s="4">
+      <c r="BI14" s="4">
         <f t="shared" si="22"/>
         <v>50</v>
       </c>
-      <c r="BI14" s="4">
+      <c r="BJ14" s="4">
         <f t="shared" si="23"/>
         <v>10.5</v>
       </c>
-      <c r="BJ14" s="4">
+      <c r="BK14" s="4">
         <f t="shared" si="24"/>
         <v>10.5</v>
       </c>
-      <c r="BK14" s="4">
+      <c r="BL14" s="4">
         <f t="shared" si="25"/>
         <v>21</v>
       </c>
-      <c r="BL14" s="4">
+      <c r="BM14" s="4">
         <f t="shared" si="26"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BM14" s="4">
+      <c r="BN14" s="4">
         <f t="shared" si="27"/>
         <v>26.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO14" s="4">
+        <f t="shared" si="38"/>
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -10285,120 +10391,128 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="4">
+      <c r="AJ15" s="9">
+        <f t="shared" si="37"/>
+        <v>6.8610634648370494</v>
+      </c>
+      <c r="AM15" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AM15" s="4">
+      <c r="AN15" s="4">
         <f t="shared" si="1"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="AN15" s="4">
+      <c r="AO15" s="4">
         <f t="shared" si="2"/>
         <v>65.7</v>
       </c>
-      <c r="AO15" s="4">
+      <c r="AP15" s="4">
         <f t="shared" si="3"/>
         <v>52.6</v>
       </c>
-      <c r="AP15" s="4">
+      <c r="AQ15" s="4">
         <f t="shared" si="4"/>
         <v>84.2</v>
       </c>
-      <c r="AQ15" s="4">
+      <c r="AR15" s="4">
         <f t="shared" si="5"/>
         <v>86.8</v>
       </c>
-      <c r="AR15" s="4">
+      <c r="AS15" s="4">
         <f t="shared" si="6"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="AS15" s="4">
+      <c r="AT15" s="4">
         <f t="shared" si="7"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="AT15" s="4">
+      <c r="AU15" s="4">
         <f t="shared" si="8"/>
         <v>60.5</v>
       </c>
-      <c r="AU15" s="4">
+      <c r="AV15" s="4">
         <f t="shared" si="9"/>
         <v>55.2</v>
       </c>
-      <c r="AV15" s="4">
+      <c r="AW15" s="4">
         <f t="shared" si="10"/>
         <v>52.6</v>
       </c>
-      <c r="AW15" s="4">
+      <c r="AX15" s="4">
         <f t="shared" si="11"/>
         <v>52.6</v>
       </c>
-      <c r="AX15" s="4">
+      <c r="AY15" s="4">
         <f t="shared" si="12"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="AY15" s="4">
+      <c r="AZ15" s="4">
         <f t="shared" si="13"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="AZ15" s="4">
+      <c r="BA15" s="4">
         <f t="shared" si="14"/>
         <v>71</v>
       </c>
-      <c r="BA15" s="4">
+      <c r="BB15" s="4">
         <f t="shared" si="15"/>
         <v>28.9</v>
       </c>
-      <c r="BB15" s="4">
+      <c r="BC15" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BC15" s="4">
+      <c r="BD15" s="4">
         <f t="shared" si="17"/>
         <v>89.5</v>
       </c>
-      <c r="BD15" s="4">
+      <c r="BE15" s="4">
         <f t="shared" si="18"/>
         <v>23.700000000000003</v>
       </c>
-      <c r="BE15" s="4">
+      <c r="BF15" s="4">
         <f t="shared" si="19"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="BF15" s="4">
+      <c r="BG15" s="4">
         <f t="shared" si="20"/>
         <v>28.9</v>
       </c>
-      <c r="BG15" s="4">
+      <c r="BH15" s="4">
         <f t="shared" si="21"/>
         <v>76.3</v>
       </c>
-      <c r="BH15" s="4">
+      <c r="BI15" s="4">
         <f t="shared" si="22"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="BI15" s="4">
+      <c r="BJ15" s="4">
         <f t="shared" si="23"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="BJ15" s="4">
+      <c r="BK15" s="4">
         <f t="shared" si="24"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="BK15" s="4">
+      <c r="BL15" s="4">
         <f t="shared" si="25"/>
         <v>97.3</v>
       </c>
-      <c r="BL15" s="4">
+      <c r="BM15" s="4">
         <f t="shared" si="26"/>
         <v>97.3</v>
       </c>
-      <c r="BM15" s="4">
+      <c r="BN15" s="4">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO15" s="4">
+        <f t="shared" si="38"/>
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -10517,120 +10631,128 @@
         <f t="shared" si="36"/>
         <v>2.9411764705882356E-2</v>
       </c>
-      <c r="AL16" s="4">
+      <c r="AJ16" s="9">
+        <f t="shared" si="37"/>
+        <v>14.079333986287953</v>
+      </c>
+      <c r="AM16" s="4">
         <f t="shared" si="0"/>
         <v>52.6</v>
       </c>
-      <c r="AM16" s="4">
+      <c r="AN16" s="4">
         <f t="shared" si="1"/>
         <v>65.7</v>
       </c>
-      <c r="AN16" s="4">
+      <c r="AO16" s="4">
         <f t="shared" si="2"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="AO16" s="4">
+      <c r="AP16" s="4">
         <f t="shared" si="3"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="AP16" s="4">
+      <c r="AQ16" s="4">
         <f t="shared" si="4"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="AQ16" s="4">
+      <c r="AR16" s="4">
         <f t="shared" si="5"/>
         <v>81.5</v>
       </c>
-      <c r="AR16" s="4">
+      <c r="AS16" s="4">
         <f t="shared" si="6"/>
         <v>76.3</v>
       </c>
-      <c r="AS16" s="4">
+      <c r="AT16" s="4">
         <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="AT16" s="4">
+      <c r="AU16" s="4">
         <f t="shared" si="8"/>
         <v>60.5</v>
       </c>
-      <c r="AU16" s="4">
+      <c r="AV16" s="4">
         <f t="shared" si="9"/>
         <v>76.3</v>
       </c>
-      <c r="AV16" s="4">
+      <c r="AW16" s="4">
         <f t="shared" si="10"/>
         <v>15.7</v>
       </c>
-      <c r="AW16" s="4">
+      <c r="AX16" s="4">
         <f t="shared" si="11"/>
         <v>44.7</v>
       </c>
-      <c r="AX16" s="4">
+      <c r="AY16" s="4">
         <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="AY16" s="4">
+      <c r="AZ16" s="4">
         <f t="shared" si="13"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="AZ16" s="4">
+      <c r="BA16" s="4">
         <f t="shared" si="14"/>
         <v>42.1</v>
       </c>
-      <c r="BA16" s="4">
+      <c r="BB16" s="4">
         <f t="shared" si="15"/>
         <v>42.1</v>
       </c>
-      <c r="BB16" s="4">
+      <c r="BC16" s="4">
         <f t="shared" si="16"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BC16" s="4">
+      <c r="BD16" s="4">
         <f t="shared" si="17"/>
         <v>7.8999999999999915</v>
       </c>
-      <c r="BD16" s="4">
+      <c r="BE16" s="4">
         <f t="shared" si="18"/>
         <v>10.599999999999994</v>
       </c>
-      <c r="BE16" s="4">
+      <c r="BF16" s="4">
         <f t="shared" si="19"/>
         <v>57.8</v>
       </c>
-      <c r="BF16" s="4">
+      <c r="BG16" s="4">
         <f t="shared" si="20"/>
         <v>63.1</v>
       </c>
-      <c r="BG16" s="4">
+      <c r="BH16" s="4">
         <f t="shared" si="21"/>
         <v>15.7</v>
       </c>
-      <c r="BH16" s="4">
+      <c r="BI16" s="4">
         <f t="shared" si="22"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="BI16" s="4">
+      <c r="BJ16" s="4">
         <f t="shared" si="23"/>
         <v>47.3</v>
       </c>
-      <c r="BJ16" s="4">
+      <c r="BK16" s="4">
         <f t="shared" si="24"/>
         <v>47.3</v>
       </c>
-      <c r="BK16" s="4">
+      <c r="BL16" s="4">
         <f t="shared" si="25"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="BL16" s="4">
+      <c r="BM16" s="4">
         <f t="shared" si="26"/>
         <v>44.7</v>
       </c>
-      <c r="BM16" s="4">
+      <c r="BN16" s="4">
         <f t="shared" si="27"/>
         <v>13.100000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO16" s="4">
+        <f t="shared" si="38"/>
+        <v>26.400000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -10749,120 +10871,128 @@
         <f t="shared" si="36"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="AL17" s="4">
+      <c r="AJ17" s="9">
+        <f t="shared" si="37"/>
+        <v>4.9504950495049513</v>
+      </c>
+      <c r="AM17" s="4">
         <f t="shared" si="0"/>
         <v>39.4</v>
       </c>
-      <c r="AM17" s="4">
+      <c r="AN17" s="4">
         <f t="shared" si="1"/>
         <v>63.1</v>
       </c>
-      <c r="AN17" s="4">
+      <c r="AO17" s="4">
         <f t="shared" si="2"/>
         <v>57.8</v>
       </c>
-      <c r="AO17" s="4">
+      <c r="AP17" s="4">
         <f t="shared" si="3"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="AP17" s="4">
+      <c r="AQ17" s="4">
         <f t="shared" si="4"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="AQ17" s="4">
+      <c r="AR17" s="4">
         <f t="shared" si="5"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="AR17" s="4">
+      <c r="AS17" s="4">
         <f t="shared" si="6"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="AS17" s="4">
+      <c r="AT17" s="4">
         <f t="shared" si="7"/>
         <v>57.8</v>
       </c>
-      <c r="AT17" s="4">
+      <c r="AU17" s="4">
         <f t="shared" si="8"/>
         <v>44.7</v>
       </c>
-      <c r="AU17" s="4">
+      <c r="AV17" s="4">
         <f t="shared" si="9"/>
         <v>28.9</v>
       </c>
-      <c r="AV17" s="4">
+      <c r="AW17" s="4">
         <f t="shared" si="10"/>
         <v>86.8</v>
       </c>
-      <c r="AW17" s="4">
+      <c r="AX17" s="4">
         <f t="shared" si="11"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="AX17" s="4">
+      <c r="AY17" s="4">
         <f t="shared" si="12"/>
         <v>44.7</v>
       </c>
-      <c r="AY17" s="4">
+      <c r="AZ17" s="4">
         <f t="shared" si="13"/>
         <v>42.1</v>
       </c>
-      <c r="AZ17" s="4">
+      <c r="BA17" s="4">
         <f t="shared" si="14"/>
         <v>71</v>
       </c>
-      <c r="BA17" s="4">
+      <c r="BB17" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BB17" s="4">
+      <c r="BC17" s="4">
         <f t="shared" si="16"/>
         <v>44.7</v>
       </c>
-      <c r="BC17" s="4">
+      <c r="BD17" s="4">
         <f t="shared" si="17"/>
         <v>94.8</v>
       </c>
-      <c r="BD17" s="4">
+      <c r="BE17" s="4">
         <f t="shared" si="18"/>
         <v>36.9</v>
       </c>
-      <c r="BE17" s="4">
+      <c r="BF17" s="4">
         <f t="shared" si="19"/>
         <v>15.7</v>
       </c>
-      <c r="BF17" s="4">
+      <c r="BG17" s="4">
         <f t="shared" si="20"/>
         <v>26.3</v>
       </c>
-      <c r="BG17" s="4">
+      <c r="BH17" s="4">
         <f t="shared" si="21"/>
         <v>10.5</v>
       </c>
-      <c r="BH17" s="4">
+      <c r="BI17" s="4">
         <f t="shared" si="22"/>
         <v>97.3</v>
       </c>
-      <c r="BI17" s="4">
+      <c r="BJ17" s="4">
         <f t="shared" si="23"/>
         <v>55.2</v>
       </c>
-      <c r="BJ17" s="4">
+      <c r="BK17" s="4">
         <f t="shared" si="24"/>
         <v>55.2</v>
       </c>
-      <c r="BK17" s="4">
+      <c r="BL17" s="4">
         <f t="shared" si="25"/>
         <v>76.3</v>
       </c>
-      <c r="BL17" s="4">
+      <c r="BM17" s="4">
         <f t="shared" si="26"/>
         <v>39.4</v>
       </c>
-      <c r="BM17" s="4">
+      <c r="BN17" s="4">
         <f t="shared" si="27"/>
         <v>47.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO17" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -10981,120 +11111,128 @@
         <f t="shared" si="36"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="AL18" s="4">
-        <f t="shared" ref="AL18:AZ18" si="37">(PERCENTRANK(D$3:D$78,D18))*100</f>
+      <c r="AJ18" s="9">
+        <f t="shared" si="37"/>
+        <v>11.656609983543611</v>
+      </c>
+      <c r="AM18" s="4">
+        <f t="shared" ref="AM18:BA18" si="39">(PERCENTRANK(D$3:D$78,D18))*100</f>
         <v>57.8</v>
       </c>
-      <c r="AM18" s="4">
-        <f t="shared" si="37"/>
+      <c r="AN18" s="4">
+        <f t="shared" si="39"/>
         <v>60.5</v>
       </c>
-      <c r="AN18" s="4">
-        <f t="shared" si="37"/>
+      <c r="AO18" s="4">
+        <f t="shared" si="39"/>
         <v>63.1</v>
       </c>
-      <c r="AO18" s="4">
-        <f t="shared" si="37"/>
+      <c r="AP18" s="4">
+        <f t="shared" si="39"/>
         <v>65.7</v>
       </c>
-      <c r="AP18" s="4">
-        <f t="shared" si="37"/>
+      <c r="AQ18" s="4">
+        <f t="shared" si="39"/>
         <v>31.5</v>
       </c>
-      <c r="AQ18" s="4">
-        <f t="shared" si="37"/>
+      <c r="AR18" s="4">
+        <f t="shared" si="39"/>
         <v>63.1</v>
       </c>
-      <c r="AR18" s="4">
-        <f t="shared" si="37"/>
+      <c r="AS18" s="4">
+        <f t="shared" si="39"/>
         <v>57.8</v>
       </c>
-      <c r="AS18" s="4">
-        <f t="shared" si="37"/>
+      <c r="AT18" s="4">
+        <f t="shared" si="39"/>
         <v>52.6</v>
       </c>
-      <c r="AT18" s="4">
-        <f t="shared" si="37"/>
+      <c r="AU18" s="4">
+        <f t="shared" si="39"/>
         <v>52.6</v>
       </c>
-      <c r="AU18" s="4">
-        <f t="shared" si="37"/>
+      <c r="AV18" s="4">
+        <f t="shared" si="39"/>
         <v>31.5</v>
       </c>
-      <c r="AV18" s="4">
-        <f t="shared" si="37"/>
+      <c r="AW18" s="4">
+        <f t="shared" si="39"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="AW18" s="4">
-        <f t="shared" si="37"/>
+      <c r="AX18" s="4">
+        <f t="shared" si="39"/>
         <v>52.6</v>
       </c>
-      <c r="AX18" s="4">
-        <f t="shared" si="37"/>
+      <c r="AY18" s="4">
+        <f t="shared" si="39"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="AY18" s="4">
-        <f t="shared" si="37"/>
+      <c r="AZ18" s="4">
+        <f t="shared" si="39"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="AZ18" s="4">
-        <f t="shared" si="37"/>
+      <c r="BA18" s="4">
+        <f t="shared" si="39"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BA18" s="4">
-        <f t="shared" ref="BA18:BA49" si="38">(PERCENTRANK(S$3:S$78,S18))*100</f>
+      <c r="BB18" s="4">
+        <f t="shared" ref="BB18:BB41" si="40">(PERCENTRANK(S$3:S$78,S18))*100</f>
         <v>28.9</v>
       </c>
-      <c r="BB18" s="4">
-        <f t="shared" ref="BB18:BB49" si="39">(PERCENTRANK(T$3:T$78,T18))*100</f>
+      <c r="BC18" s="4">
+        <f t="shared" ref="BC18:BC41" si="41">(PERCENTRANK(T$3:T$78,T18))*100</f>
         <v>60.5</v>
       </c>
-      <c r="BC18" s="4">
+      <c r="BD18" s="4">
         <f t="shared" si="17"/>
         <v>36.9</v>
       </c>
-      <c r="BD18" s="4">
+      <c r="BE18" s="4">
         <f t="shared" si="18"/>
         <v>52.7</v>
       </c>
-      <c r="BE18" s="4">
+      <c r="BF18" s="4">
         <f t="shared" si="19"/>
         <v>65.7</v>
       </c>
-      <c r="BF18" s="4">
+      <c r="BG18" s="4">
         <f t="shared" si="20"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="BG18" s="4">
+      <c r="BH18" s="4">
         <f t="shared" si="21"/>
         <v>28.9</v>
       </c>
-      <c r="BH18" s="4">
+      <c r="BI18" s="4">
         <f t="shared" si="22"/>
         <v>10.5</v>
       </c>
-      <c r="BI18" s="4">
+      <c r="BJ18" s="4">
         <f t="shared" si="23"/>
         <v>31.5</v>
       </c>
-      <c r="BJ18" s="4">
+      <c r="BK18" s="4">
         <f t="shared" si="24"/>
         <v>31.5</v>
       </c>
-      <c r="BK18" s="4">
+      <c r="BL18" s="4">
         <f t="shared" si="25"/>
         <v>39.4</v>
       </c>
-      <c r="BL18" s="4">
+      <c r="BM18" s="4">
         <f t="shared" si="26"/>
         <v>28.9</v>
       </c>
-      <c r="BM18" s="4">
+      <c r="BN18" s="4">
         <f t="shared" si="27"/>
         <v>65.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO18" s="4">
+        <f t="shared" si="38"/>
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -11213,120 +11351,128 @@
         <f t="shared" si="36"/>
         <v>0.10526315789473685</v>
       </c>
-      <c r="AL19" s="4">
-        <f t="shared" ref="AL19:AL41" si="40">(PERCENTRANK(D$3:D$78,D19))*100</f>
+      <c r="AJ19" s="9">
+        <f t="shared" si="37"/>
+        <v>17.196904557179707</v>
+      </c>
+      <c r="AM19" s="4">
+        <f t="shared" ref="AM19:AM41" si="42">(PERCENTRANK(D$3:D$78,D19))*100</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="AM19" s="4">
-        <f t="shared" ref="AM19:AM41" si="41">(PERCENTRANK(E$3:E$78,E19))*100</f>
+      <c r="AN19" s="4">
+        <f t="shared" ref="AN19:AN41" si="43">(PERCENTRANK(E$3:E$78,E19))*100</f>
         <v>57.8</v>
       </c>
-      <c r="AN19" s="4">
-        <f t="shared" ref="AN19:AN41" si="42">(PERCENTRANK(F$3:F$78,F19))*100</f>
+      <c r="AO19" s="4">
+        <f t="shared" ref="AO19:AO41" si="44">(PERCENTRANK(F$3:F$78,F19))*100</f>
         <v>52.6</v>
       </c>
-      <c r="AO19" s="4">
-        <f t="shared" ref="AO19:AO41" si="43">(PERCENTRANK(G$3:G$78,G19))*100</f>
+      <c r="AP19" s="4">
+        <f t="shared" ref="AP19:AP41" si="45">(PERCENTRANK(G$3:G$78,G19))*100</f>
         <v>55.2</v>
       </c>
-      <c r="AP19" s="4">
-        <f t="shared" ref="AP19:AP41" si="44">(PERCENTRANK(H$3:H$78,H19))*100</f>
+      <c r="AQ19" s="4">
+        <f t="shared" ref="AQ19:AQ41" si="46">(PERCENTRANK(H$3:H$78,H19))*100</f>
         <v>57.8</v>
       </c>
-      <c r="AQ19" s="4">
-        <f t="shared" ref="AQ19:AQ41" si="45">(PERCENTRANK(I$3:I$78,I19))*100</f>
+      <c r="AR19" s="4">
+        <f t="shared" ref="AR19:AR41" si="47">(PERCENTRANK(I$3:I$78,I19))*100</f>
         <v>7.8</v>
       </c>
-      <c r="AR19" s="4">
-        <f t="shared" ref="AR19:AR41" si="46">(PERCENTRANK(J$3:J$78,J19))*100</f>
+      <c r="AS19" s="4">
+        <f t="shared" ref="AS19:AS41" si="48">(PERCENTRANK(J$3:J$78,J19))*100</f>
         <v>13.100000000000001</v>
       </c>
-      <c r="AS19" s="4">
-        <f t="shared" ref="AS19:AS41" si="47">(PERCENTRANK(K$3:K$78,K19))*100</f>
+      <c r="AT19" s="4">
+        <f t="shared" ref="AT19:AT41" si="49">(PERCENTRANK(K$3:K$78,K19))*100</f>
         <v>18.399999999999999</v>
       </c>
-      <c r="AT19" s="4">
-        <f t="shared" ref="AT19:AZ49" si="48">(PERCENTRANK(L$3:L$78,L19))*100</f>
+      <c r="AU19" s="4">
+        <f t="shared" ref="AU19:BA41" si="50">(PERCENTRANK(L$3:L$78,L19))*100</f>
         <v>84.2</v>
       </c>
-      <c r="AU19" s="4">
-        <f t="shared" si="48"/>
+      <c r="AV19" s="4">
+        <f t="shared" si="50"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="AV19" s="4">
-        <f t="shared" si="48"/>
+      <c r="AW19" s="4">
+        <f t="shared" si="50"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="AW19" s="4">
-        <f t="shared" si="48"/>
+      <c r="AX19" s="4">
+        <f t="shared" si="50"/>
         <v>100</v>
       </c>
-      <c r="AX19" s="4">
-        <f t="shared" si="48"/>
+      <c r="AY19" s="4">
+        <f t="shared" si="50"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="AY19" s="4">
-        <f t="shared" si="48"/>
+      <c r="AZ19" s="4">
+        <f t="shared" si="50"/>
         <v>100</v>
       </c>
-      <c r="AZ19" s="4">
-        <f t="shared" si="48"/>
+      <c r="BA19" s="4">
+        <f t="shared" si="50"/>
         <v>42.1</v>
       </c>
-      <c r="BA19" s="4">
-        <f t="shared" si="38"/>
+      <c r="BB19" s="4">
+        <f t="shared" si="40"/>
         <v>55.2</v>
       </c>
-      <c r="BB19" s="4">
-        <f t="shared" si="39"/>
+      <c r="BC19" s="4">
+        <f t="shared" si="41"/>
         <v>60.5</v>
       </c>
-      <c r="BC19" s="4">
+      <c r="BD19" s="4">
         <f t="shared" si="17"/>
         <v>5.3000000000000114</v>
       </c>
-      <c r="BD19" s="4">
+      <c r="BE19" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BE19" s="4">
+      <c r="BF19" s="4">
         <f t="shared" si="19"/>
         <v>76.3</v>
       </c>
-      <c r="BF19" s="4">
+      <c r="BG19" s="4">
         <f t="shared" si="20"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="BG19" s="4">
+      <c r="BH19" s="4">
         <f t="shared" si="21"/>
         <v>39.4</v>
       </c>
-      <c r="BH19" s="4">
+      <c r="BI19" s="4">
         <f t="shared" si="22"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="BI19" s="4">
+      <c r="BJ19" s="4">
         <f t="shared" si="23"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="BJ19" s="4">
+      <c r="BK19" s="4">
         <f t="shared" si="24"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="BK19" s="4">
+      <c r="BL19" s="4">
         <f t="shared" si="25"/>
         <v>44.7</v>
       </c>
-      <c r="BL19" s="4">
+      <c r="BM19" s="4">
         <f t="shared" si="26"/>
         <v>26.3</v>
       </c>
-      <c r="BM19" s="4">
+      <c r="BN19" s="4">
         <f t="shared" si="27"/>
         <v>42.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO19" s="4">
+        <f t="shared" si="38"/>
+        <v>15.799999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -11445,120 +11591,128 @@
         <f t="shared" si="36"/>
         <v>5.5555555555555559E-2</v>
       </c>
-      <c r="AL20" s="4">
+      <c r="AJ20" s="9">
+        <f t="shared" si="37"/>
+        <v>14.734774066797641</v>
+      </c>
+      <c r="AM20" s="4">
+        <f t="shared" si="42"/>
+        <v>55.2</v>
+      </c>
+      <c r="AN20" s="4">
+        <f t="shared" si="43"/>
+        <v>55.2</v>
+      </c>
+      <c r="AO20" s="4">
+        <f t="shared" si="44"/>
+        <v>47.3</v>
+      </c>
+      <c r="AP20" s="4">
+        <f t="shared" si="45"/>
+        <v>44.7</v>
+      </c>
+      <c r="AQ20" s="4">
+        <f t="shared" si="46"/>
+        <v>42.1</v>
+      </c>
+      <c r="AR20" s="4">
+        <f t="shared" si="47"/>
+        <v>76.3</v>
+      </c>
+      <c r="AS20" s="4">
+        <f t="shared" si="48"/>
+        <v>52.6</v>
+      </c>
+      <c r="AT20" s="4">
+        <f t="shared" si="49"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AU20" s="4">
+        <f t="shared" si="50"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AV20" s="4">
+        <f t="shared" si="50"/>
+        <v>44.7</v>
+      </c>
+      <c r="AW20" s="4">
+        <f t="shared" si="50"/>
+        <v>76.3</v>
+      </c>
+      <c r="AX20" s="4">
+        <f t="shared" si="50"/>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AY20" s="4">
+        <f t="shared" si="50"/>
+        <v>10.5</v>
+      </c>
+      <c r="AZ20" s="4">
+        <f t="shared" si="50"/>
+        <v>10.5</v>
+      </c>
+      <c r="BA20" s="4">
+        <f t="shared" si="50"/>
+        <v>55.2</v>
+      </c>
+      <c r="BB20" s="4">
         <f t="shared" si="40"/>
-        <v>55.2</v>
-      </c>
-      <c r="AM20" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="BC20" s="4">
         <f t="shared" si="41"/>
-        <v>55.2</v>
-      </c>
-      <c r="AN20" s="4">
-        <f t="shared" si="42"/>
-        <v>47.3</v>
-      </c>
-      <c r="AO20" s="4">
-        <f t="shared" si="43"/>
-        <v>44.7</v>
-      </c>
-      <c r="AP20" s="4">
-        <f t="shared" si="44"/>
-        <v>42.1</v>
-      </c>
-      <c r="AQ20" s="4">
-        <f t="shared" si="45"/>
-        <v>76.3</v>
-      </c>
-      <c r="AR20" s="4">
-        <f t="shared" si="46"/>
-        <v>52.6</v>
-      </c>
-      <c r="AS20" s="4">
-        <f t="shared" si="47"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="AT20" s="4">
-        <f t="shared" si="48"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="AU20" s="4">
-        <f t="shared" si="48"/>
-        <v>44.7</v>
-      </c>
-      <c r="AV20" s="4">
-        <f t="shared" si="48"/>
-        <v>76.3</v>
-      </c>
-      <c r="AW20" s="4">
-        <f t="shared" si="48"/>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="AX20" s="4">
-        <f t="shared" si="48"/>
-        <v>10.5</v>
-      </c>
-      <c r="AY20" s="4">
-        <f t="shared" si="48"/>
-        <v>10.5</v>
-      </c>
-      <c r="AZ20" s="4">
-        <f t="shared" si="48"/>
-        <v>55.2</v>
-      </c>
-      <c r="BA20" s="4">
-        <f t="shared" si="38"/>
-        <v>28.9</v>
-      </c>
-      <c r="BB20" s="4">
-        <f t="shared" si="39"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BC20" s="4">
+      <c r="BD20" s="4">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
-      <c r="BD20" s="4">
+      <c r="BE20" s="4">
         <f t="shared" si="18"/>
         <v>92.2</v>
       </c>
-      <c r="BE20" s="4">
+      <c r="BF20" s="4">
         <f t="shared" si="19"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="BF20" s="4">
+      <c r="BG20" s="4">
         <f t="shared" si="20"/>
         <v>42.1</v>
       </c>
-      <c r="BG20" s="4">
+      <c r="BH20" s="4">
         <f t="shared" si="21"/>
         <v>26.3</v>
       </c>
-      <c r="BH20" s="4">
+      <c r="BI20" s="4">
         <f t="shared" si="22"/>
         <v>44.7</v>
       </c>
-      <c r="BI20" s="4">
+      <c r="BJ20" s="4">
         <f t="shared" si="23"/>
         <v>71</v>
       </c>
-      <c r="BJ20" s="4">
+      <c r="BK20" s="4">
         <f t="shared" si="24"/>
         <v>71</v>
       </c>
-      <c r="BK20" s="4">
+      <c r="BL20" s="4">
         <f t="shared" si="25"/>
         <v>60.5</v>
       </c>
-      <c r="BL20" s="4">
+      <c r="BM20" s="4">
         <f t="shared" si="26"/>
         <v>60.5</v>
       </c>
-      <c r="BM20" s="4">
+      <c r="BN20" s="4">
         <f t="shared" si="27"/>
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO20" s="4">
+        <f t="shared" si="38"/>
+        <v>23.700000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -11677,120 +11831,128 @@
         <f t="shared" si="36"/>
         <v>0.38888888888888884</v>
       </c>
-      <c r="AL21" s="4">
+      <c r="AJ21" s="9">
+        <f t="shared" si="37"/>
+        <v>8.5999312005503956</v>
+      </c>
+      <c r="AM21" s="4">
+        <f t="shared" si="42"/>
+        <v>26.3</v>
+      </c>
+      <c r="AN21" s="4">
+        <f t="shared" si="43"/>
+        <v>52.6</v>
+      </c>
+      <c r="AO21" s="4">
+        <f t="shared" si="44"/>
+        <v>52.6</v>
+      </c>
+      <c r="AP21" s="4">
+        <f t="shared" si="45"/>
+        <v>50</v>
+      </c>
+      <c r="AQ21" s="4">
+        <f t="shared" si="46"/>
+        <v>63.1</v>
+      </c>
+      <c r="AR21" s="4">
+        <f t="shared" si="47"/>
+        <v>28.9</v>
+      </c>
+      <c r="AS21" s="4">
+        <f t="shared" si="48"/>
+        <v>52.6</v>
+      </c>
+      <c r="AT21" s="4">
+        <f t="shared" si="49"/>
+        <v>7.8</v>
+      </c>
+      <c r="AU21" s="4">
+        <f t="shared" si="50"/>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AV21" s="4">
+        <f t="shared" si="50"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AW21" s="4">
+        <f t="shared" si="50"/>
+        <v>23.599999999999998</v>
+      </c>
+      <c r="AX21" s="4">
+        <f t="shared" si="50"/>
+        <v>89.4</v>
+      </c>
+      <c r="AY21" s="4">
+        <f t="shared" si="50"/>
+        <v>81.5</v>
+      </c>
+      <c r="AZ21" s="4">
+        <f t="shared" si="50"/>
+        <v>86.8</v>
+      </c>
+      <c r="BA21" s="4">
+        <f t="shared" si="50"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="BB21" s="4">
         <f t="shared" si="40"/>
-        <v>26.3</v>
-      </c>
-      <c r="AM21" s="4">
+        <v>55.2</v>
+      </c>
+      <c r="BC21" s="4">
         <f t="shared" si="41"/>
-        <v>52.6</v>
-      </c>
-      <c r="AN21" s="4">
-        <f t="shared" si="42"/>
-        <v>52.6</v>
-      </c>
-      <c r="AO21" s="4">
-        <f t="shared" si="43"/>
-        <v>50</v>
-      </c>
-      <c r="AP21" s="4">
-        <f t="shared" si="44"/>
-        <v>63.1</v>
-      </c>
-      <c r="AQ21" s="4">
-        <f t="shared" si="45"/>
-        <v>28.9</v>
-      </c>
-      <c r="AR21" s="4">
-        <f t="shared" si="46"/>
-        <v>52.6</v>
-      </c>
-      <c r="AS21" s="4">
-        <f t="shared" si="47"/>
-        <v>7.8</v>
-      </c>
-      <c r="AT21" s="4">
-        <f t="shared" si="48"/>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="AU21" s="4">
-        <f t="shared" si="48"/>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="AV21" s="4">
-        <f t="shared" si="48"/>
-        <v>23.599999999999998</v>
-      </c>
-      <c r="AW21" s="4">
-        <f t="shared" si="48"/>
         <v>89.4</v>
       </c>
-      <c r="AX21" s="4">
-        <f t="shared" si="48"/>
-        <v>81.5</v>
-      </c>
-      <c r="AY21" s="4">
-        <f t="shared" si="48"/>
-        <v>86.8</v>
-      </c>
-      <c r="AZ21" s="4">
-        <f t="shared" si="48"/>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="BA21" s="4">
-        <f t="shared" si="38"/>
-        <v>55.2</v>
-      </c>
-      <c r="BB21" s="4">
-        <f t="shared" si="39"/>
-        <v>89.4</v>
-      </c>
-      <c r="BC21" s="4">
+      <c r="BD21" s="4">
         <f t="shared" si="17"/>
         <v>81.599999999999994</v>
       </c>
-      <c r="BD21" s="4">
+      <c r="BE21" s="4">
         <f t="shared" si="18"/>
         <v>92.2</v>
       </c>
-      <c r="BE21" s="4">
+      <c r="BF21" s="4">
         <f t="shared" si="19"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="BF21" s="4">
+      <c r="BG21" s="4">
         <f t="shared" si="20"/>
         <v>47.3</v>
       </c>
-      <c r="BG21" s="4">
+      <c r="BH21" s="4">
         <f t="shared" si="21"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="BH21" s="4">
+      <c r="BI21" s="4">
         <f t="shared" si="22"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="BI21" s="4">
+      <c r="BJ21" s="4">
         <f t="shared" si="23"/>
         <v>60.5</v>
       </c>
-      <c r="BJ21" s="4">
+      <c r="BK21" s="4">
         <f t="shared" si="24"/>
         <v>60.5</v>
       </c>
-      <c r="BK21" s="4">
+      <c r="BL21" s="4">
         <f t="shared" si="25"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="BL21" s="4">
+      <c r="BM21" s="4">
         <f t="shared" si="26"/>
         <v>65.7</v>
       </c>
-      <c r="BM21" s="4">
+      <c r="BN21" s="4">
         <f t="shared" si="27"/>
         <v>92.100000000000009</v>
       </c>
-    </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO21" s="4">
+        <f t="shared" si="38"/>
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -11909,120 +12071,128 @@
         <f t="shared" si="36"/>
         <v>2.9411764705882356E-2</v>
       </c>
-      <c r="AL22" s="4">
-        <f t="shared" si="40"/>
+      <c r="AJ22" s="9">
+        <f t="shared" si="37"/>
+        <v>13.517572844698106</v>
+      </c>
+      <c r="AM22" s="4">
+        <f t="shared" si="42"/>
         <v>44.7</v>
       </c>
-      <c r="AM22" s="4">
-        <f t="shared" si="41"/>
+      <c r="AN22" s="4">
+        <f t="shared" si="43"/>
         <v>50</v>
       </c>
-      <c r="AN22" s="4">
-        <f t="shared" si="42"/>
+      <c r="AO22" s="4">
+        <f t="shared" si="44"/>
         <v>50</v>
       </c>
-      <c r="AO22" s="4">
-        <f t="shared" si="43"/>
+      <c r="AP22" s="4">
+        <f t="shared" si="45"/>
         <v>57.8</v>
       </c>
-      <c r="AP22" s="4">
-        <f t="shared" si="44"/>
+      <c r="AQ22" s="4">
+        <f t="shared" si="46"/>
         <v>28.9</v>
       </c>
-      <c r="AQ22" s="4">
-        <f t="shared" si="45"/>
-        <v>23.599999999999998</v>
-      </c>
       <c r="AR22" s="4">
-        <f t="shared" si="46"/>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="AS22" s="4">
         <f t="shared" si="47"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="AT22" s="4">
-        <f t="shared" si="48"/>
-        <v>52.6</v>
-      </c>
-      <c r="AU22" s="4">
-        <f t="shared" si="48"/>
-        <v>44.7</v>
-      </c>
-      <c r="AV22" s="4">
-        <f t="shared" si="48"/>
-        <v>50</v>
-      </c>
-      <c r="AW22" s="4">
-        <f t="shared" si="48"/>
-        <v>78.900000000000006</v>
-      </c>
-      <c r="AX22" s="4">
-        <f t="shared" si="48"/>
-        <v>26.3</v>
-      </c>
-      <c r="AY22" s="4">
+      <c r="AS22" s="4">
         <f t="shared" si="48"/>
         <v>34.200000000000003</v>
       </c>
+      <c r="AT22" s="4">
+        <f t="shared" si="49"/>
+        <v>23.599999999999998</v>
+      </c>
+      <c r="AU22" s="4">
+        <f t="shared" si="50"/>
+        <v>52.6</v>
+      </c>
+      <c r="AV22" s="4">
+        <f t="shared" si="50"/>
+        <v>44.7</v>
+      </c>
+      <c r="AW22" s="4">
+        <f t="shared" si="50"/>
+        <v>50</v>
+      </c>
+      <c r="AX22" s="4">
+        <f t="shared" si="50"/>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AY22" s="4">
+        <f t="shared" si="50"/>
+        <v>26.3</v>
+      </c>
       <c r="AZ22" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="BA22" s="4">
+        <f t="shared" si="50"/>
         <v>42.1</v>
       </c>
-      <c r="BA22" s="4">
-        <f t="shared" si="38"/>
+      <c r="BB22" s="4">
+        <f t="shared" si="40"/>
         <v>42.1</v>
       </c>
-      <c r="BB22" s="4">
-        <f t="shared" si="39"/>
+      <c r="BC22" s="4">
+        <f t="shared" si="41"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BC22" s="4">
+      <c r="BD22" s="4">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
-      <c r="BD22" s="4">
+      <c r="BE22" s="4">
         <f t="shared" si="18"/>
         <v>10.599999999999994</v>
       </c>
-      <c r="BE22" s="4">
+      <c r="BF22" s="4">
         <f t="shared" si="19"/>
         <v>63.1</v>
       </c>
-      <c r="BF22" s="4">
+      <c r="BG22" s="4">
         <f t="shared" si="20"/>
         <v>65.7</v>
       </c>
-      <c r="BG22" s="4">
+      <c r="BH22" s="4">
         <f t="shared" si="21"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="BH22" s="4">
+      <c r="BI22" s="4">
         <f t="shared" si="22"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="BI22" s="4">
+      <c r="BJ22" s="4">
         <f t="shared" si="23"/>
         <v>21</v>
       </c>
-      <c r="BJ22" s="4">
+      <c r="BK22" s="4">
         <f t="shared" si="24"/>
         <v>21</v>
       </c>
-      <c r="BK22" s="4">
+      <c r="BL22" s="4">
         <f t="shared" si="25"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="BL22" s="4">
+      <c r="BM22" s="4">
         <f t="shared" si="26"/>
         <v>15.7</v>
       </c>
-      <c r="BM22" s="4">
+      <c r="BN22" s="4">
         <f t="shared" si="27"/>
         <v>13.100000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO22" s="4">
+        <f t="shared" si="38"/>
+        <v>31.599999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -12141,120 +12311,128 @@
         <f t="shared" si="36"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AL23" s="4">
-        <f t="shared" si="40"/>
+      <c r="AJ23" s="9">
+        <f t="shared" si="37"/>
+        <v>19.823116803903631</v>
+      </c>
+      <c r="AM23" s="4">
+        <f t="shared" si="42"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="AM23" s="4">
-        <f t="shared" si="41"/>
-        <v>47.3</v>
-      </c>
       <c r="AN23" s="4">
-        <f t="shared" si="42"/>
-        <v>60.5</v>
-      </c>
-      <c r="AO23" s="4">
         <f t="shared" si="43"/>
         <v>47.3</v>
       </c>
+      <c r="AO23" s="4">
+        <f t="shared" si="44"/>
+        <v>60.5</v>
+      </c>
       <c r="AP23" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
+        <v>47.3</v>
+      </c>
+      <c r="AQ23" s="4">
+        <f t="shared" si="46"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="AQ23" s="4">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
       <c r="AR23" s="4">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AS23" s="4">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
+      <c r="AS23" s="4">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
       <c r="AT23" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AU23" s="4">
+        <f t="shared" si="50"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="AU23" s="4">
-        <f t="shared" si="48"/>
+      <c r="AV23" s="4">
+        <f t="shared" si="50"/>
         <v>44.7</v>
       </c>
-      <c r="AV23" s="4">
-        <f t="shared" si="48"/>
+      <c r="AW23" s="4">
+        <f t="shared" si="50"/>
         <v>2.6</v>
       </c>
-      <c r="AW23" s="4">
-        <f t="shared" si="48"/>
+      <c r="AX23" s="4">
+        <f t="shared" si="50"/>
         <v>97.3</v>
       </c>
-      <c r="AX23" s="4">
-        <f t="shared" si="48"/>
+      <c r="AY23" s="4">
+        <f t="shared" si="50"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="AY23" s="4">
-        <f t="shared" si="48"/>
+      <c r="AZ23" s="4">
+        <f t="shared" si="50"/>
         <v>97.3</v>
       </c>
-      <c r="AZ23" s="4">
-        <f t="shared" si="48"/>
+      <c r="BA23" s="4">
+        <f t="shared" si="50"/>
         <v>89.4</v>
       </c>
-      <c r="BA23" s="4">
-        <f t="shared" si="38"/>
+      <c r="BB23" s="4">
+        <f t="shared" si="40"/>
         <v>71</v>
       </c>
-      <c r="BB23" s="4">
-        <f t="shared" si="39"/>
+      <c r="BC23" s="4">
+        <f t="shared" si="41"/>
         <v>44.7</v>
       </c>
-      <c r="BC23" s="4">
+      <c r="BD23" s="4">
         <f t="shared" si="17"/>
         <v>2.7000000000000028</v>
       </c>
-      <c r="BD23" s="4">
+      <c r="BE23" s="4">
         <f t="shared" si="18"/>
         <v>68.5</v>
       </c>
-      <c r="BE23" s="4">
+      <c r="BF23" s="4">
         <f t="shared" si="19"/>
         <v>81.5</v>
       </c>
-      <c r="BF23" s="4">
+      <c r="BG23" s="4">
         <f t="shared" si="20"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="BG23" s="4">
+      <c r="BH23" s="4">
         <f t="shared" si="21"/>
         <v>57.8</v>
       </c>
-      <c r="BH23" s="4">
+      <c r="BI23" s="4">
         <f t="shared" si="22"/>
         <v>55.2</v>
       </c>
-      <c r="BI23" s="4">
+      <c r="BJ23" s="4">
         <f t="shared" si="23"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="BJ23" s="4">
+      <c r="BK23" s="4">
         <f t="shared" si="24"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="BK23" s="4">
+      <c r="BL23" s="4">
         <f t="shared" si="25"/>
         <v>15.7</v>
       </c>
-      <c r="BL23" s="4">
+      <c r="BM23" s="4">
         <f t="shared" si="26"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="BM23" s="4">
+      <c r="BN23" s="4">
         <f t="shared" si="27"/>
         <v>57.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO23" s="4">
+        <f t="shared" si="38"/>
+        <v>7.8999999999999915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -12373,120 +12551,128 @@
         <f t="shared" si="36"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AL24" s="4">
-        <f t="shared" si="40"/>
+      <c r="AJ24" s="9">
+        <f t="shared" si="37"/>
+        <v>9.9085365853658534</v>
+      </c>
+      <c r="AM24" s="4">
+        <f t="shared" si="42"/>
         <v>60.5</v>
       </c>
-      <c r="AM24" s="4">
-        <f t="shared" si="41"/>
+      <c r="AN24" s="4">
+        <f t="shared" si="43"/>
         <v>39.4</v>
       </c>
-      <c r="AN24" s="4">
-        <f t="shared" si="42"/>
+      <c r="AO24" s="4">
+        <f t="shared" si="44"/>
         <v>39.4</v>
       </c>
-      <c r="AO24" s="4">
-        <f t="shared" si="43"/>
-        <v>63.1</v>
-      </c>
       <c r="AP24" s="4">
-        <f t="shared" si="44"/>
-        <v>2.6</v>
-      </c>
-      <c r="AQ24" s="4">
         <f t="shared" si="45"/>
         <v>63.1</v>
       </c>
+      <c r="AQ24" s="4">
+        <f t="shared" si="46"/>
+        <v>2.6</v>
+      </c>
       <c r="AR24" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
+        <v>63.1</v>
+      </c>
+      <c r="AS24" s="4">
+        <f t="shared" si="48"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="AS24" s="4">
-        <f t="shared" si="47"/>
+      <c r="AT24" s="4">
+        <f t="shared" si="49"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="AT24" s="4">
-        <f t="shared" si="48"/>
+      <c r="AU24" s="4">
+        <f t="shared" si="50"/>
         <v>10.5</v>
       </c>
-      <c r="AU24" s="4">
-        <f t="shared" si="48"/>
+      <c r="AV24" s="4">
+        <f t="shared" si="50"/>
         <v>10.5</v>
       </c>
-      <c r="AV24" s="4">
-        <f t="shared" si="48"/>
+      <c r="AW24" s="4">
+        <f t="shared" si="50"/>
         <v>42.1</v>
       </c>
-      <c r="AW24" s="4">
-        <f t="shared" si="48"/>
+      <c r="AX24" s="4">
+        <f t="shared" si="50"/>
         <v>2.6</v>
       </c>
-      <c r="AX24" s="4">
-        <f t="shared" si="48"/>
+      <c r="AY24" s="4">
+        <f t="shared" si="50"/>
         <v>31.5</v>
       </c>
-      <c r="AY24" s="4">
-        <f t="shared" si="48"/>
+      <c r="AZ24" s="4">
+        <f t="shared" si="50"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="AZ24" s="4">
-        <f t="shared" si="48"/>
+      <c r="BA24" s="4">
+        <f t="shared" si="50"/>
         <v>81.5</v>
       </c>
-      <c r="BA24" s="4">
-        <f t="shared" si="38"/>
+      <c r="BB24" s="4">
+        <f t="shared" si="40"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="BB24" s="4">
-        <f t="shared" si="39"/>
+      <c r="BC24" s="4">
+        <f t="shared" si="41"/>
         <v>44.7</v>
       </c>
-      <c r="BC24" s="4">
+      <c r="BD24" s="4">
         <f t="shared" si="17"/>
         <v>68.5</v>
       </c>
-      <c r="BD24" s="4">
+      <c r="BE24" s="4">
         <f t="shared" si="18"/>
         <v>68.5</v>
       </c>
-      <c r="BE24" s="4">
+      <c r="BF24" s="4">
         <f t="shared" si="19"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="BF24" s="4">
+      <c r="BG24" s="4">
         <f t="shared" si="20"/>
         <v>52.6</v>
       </c>
-      <c r="BG24" s="4">
+      <c r="BH24" s="4">
         <f t="shared" si="21"/>
         <v>7.8</v>
       </c>
-      <c r="BH24" s="4">
+      <c r="BI24" s="4">
         <f t="shared" si="22"/>
         <v>84.2</v>
       </c>
-      <c r="BI24" s="4">
+      <c r="BJ24" s="4">
         <f t="shared" si="23"/>
         <v>2.6</v>
       </c>
-      <c r="BJ24" s="4">
+      <c r="BK24" s="4">
         <f t="shared" si="24"/>
         <v>2.6</v>
       </c>
-      <c r="BK24" s="4">
+      <c r="BL24" s="4">
         <f t="shared" si="25"/>
         <v>5.2</v>
       </c>
-      <c r="BL24" s="4">
+      <c r="BM24" s="4">
         <f t="shared" si="26"/>
         <v>5.2</v>
       </c>
-      <c r="BM24" s="4">
+      <c r="BN24" s="4">
         <f t="shared" si="27"/>
         <v>57.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO24" s="4">
+        <f t="shared" si="38"/>
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -12605,120 +12791,128 @@
         <f t="shared" si="36"/>
         <v>0.22222222222222224</v>
       </c>
-      <c r="AL25" s="4">
-        <f t="shared" si="40"/>
+      <c r="AJ25" s="9">
+        <f t="shared" si="37"/>
+        <v>11.372251705837757</v>
+      </c>
+      <c r="AM25" s="4">
+        <f t="shared" si="42"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="AM25" s="4">
-        <f t="shared" si="41"/>
+      <c r="AN25" s="4">
+        <f t="shared" si="43"/>
         <v>39.4</v>
       </c>
-      <c r="AN25" s="4">
-        <f t="shared" si="42"/>
+      <c r="AO25" s="4">
+        <f t="shared" si="44"/>
         <v>39.4</v>
       </c>
-      <c r="AO25" s="4">
-        <f t="shared" si="43"/>
-        <v>36.799999999999997</v>
-      </c>
       <c r="AP25" s="4">
-        <f t="shared" si="44"/>
-        <v>47.3</v>
-      </c>
-      <c r="AQ25" s="4">
         <f t="shared" si="45"/>
         <v>36.799999999999997</v>
       </c>
+      <c r="AQ25" s="4">
+        <f t="shared" si="46"/>
+        <v>47.3</v>
+      </c>
       <c r="AR25" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AS25" s="4">
+        <f t="shared" si="48"/>
         <v>42.1</v>
       </c>
-      <c r="AS25" s="4">
-        <f t="shared" si="47"/>
+      <c r="AT25" s="4">
+        <f t="shared" si="49"/>
         <v>39.4</v>
       </c>
-      <c r="AT25" s="4">
-        <f t="shared" si="48"/>
+      <c r="AU25" s="4">
+        <f t="shared" si="50"/>
         <v>26.3</v>
       </c>
-      <c r="AU25" s="4">
-        <f t="shared" si="48"/>
+      <c r="AV25" s="4">
+        <f t="shared" si="50"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="AV25" s="4">
-        <f t="shared" si="48"/>
+      <c r="AW25" s="4">
+        <f t="shared" si="50"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="AW25" s="4">
-        <f t="shared" si="48"/>
+      <c r="AX25" s="4">
+        <f t="shared" si="50"/>
         <v>10.5</v>
       </c>
-      <c r="AX25" s="4">
-        <f t="shared" si="48"/>
+      <c r="AY25" s="4">
+        <f t="shared" si="50"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="AY25" s="4">
-        <f t="shared" si="48"/>
+      <c r="AZ25" s="4">
+        <f t="shared" si="50"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="AZ25" s="4">
-        <f t="shared" si="48"/>
+      <c r="BA25" s="4">
+        <f t="shared" si="50"/>
         <v>76.3</v>
       </c>
-      <c r="BA25" s="4">
-        <f t="shared" si="38"/>
+      <c r="BB25" s="4">
+        <f t="shared" si="40"/>
         <v>42.1</v>
       </c>
-      <c r="BB25" s="4">
-        <f t="shared" si="39"/>
+      <c r="BC25" s="4">
+        <f t="shared" si="41"/>
         <v>60.5</v>
       </c>
-      <c r="BC25" s="4">
+      <c r="BD25" s="4">
         <f t="shared" si="17"/>
         <v>73.7</v>
       </c>
-      <c r="BD25" s="4">
+      <c r="BE25" s="4">
         <f t="shared" si="18"/>
         <v>92.2</v>
       </c>
-      <c r="BE25" s="4">
+      <c r="BF25" s="4">
         <f t="shared" si="19"/>
         <v>50</v>
       </c>
-      <c r="BF25" s="4">
+      <c r="BG25" s="4">
         <f t="shared" si="20"/>
         <v>44.7</v>
       </c>
-      <c r="BG25" s="4">
+      <c r="BH25" s="4">
         <f t="shared" si="21"/>
         <v>55.2</v>
       </c>
-      <c r="BH25" s="4">
+      <c r="BI25" s="4">
         <f t="shared" si="22"/>
         <v>81.5</v>
       </c>
-      <c r="BI25" s="4">
+      <c r="BJ25" s="4">
         <f t="shared" si="23"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="BJ25" s="4">
+      <c r="BK25" s="4">
         <f t="shared" si="24"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="BK25" s="4">
+      <c r="BL25" s="4">
         <f t="shared" si="25"/>
         <v>42.1</v>
       </c>
-      <c r="BL25" s="4">
+      <c r="BM25" s="4">
         <f t="shared" si="26"/>
         <v>47.3</v>
       </c>
-      <c r="BM25" s="4">
+      <c r="BN25" s="4">
         <f t="shared" si="27"/>
         <v>78.900000000000006</v>
       </c>
-    </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO25" s="4">
+        <f t="shared" si="38"/>
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -12837,120 +13031,128 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="4">
+      <c r="AJ26" s="9">
+        <f t="shared" si="37"/>
+        <v>13.966480446927374</v>
+      </c>
+      <c r="AM26" s="4">
+        <f t="shared" si="42"/>
+        <v>5.2</v>
+      </c>
+      <c r="AN26" s="4">
+        <f t="shared" si="43"/>
+        <v>39.4</v>
+      </c>
+      <c r="AO26" s="4">
+        <f t="shared" si="44"/>
+        <v>13.100000000000001</v>
+      </c>
+      <c r="AP26" s="4">
+        <f t="shared" si="45"/>
+        <v>10.5</v>
+      </c>
+      <c r="AQ26" s="4">
+        <f t="shared" si="46"/>
+        <v>86.8</v>
+      </c>
+      <c r="AR26" s="4">
+        <f t="shared" si="47"/>
+        <v>55.2</v>
+      </c>
+      <c r="AS26" s="4">
+        <f t="shared" si="48"/>
+        <v>26.3</v>
+      </c>
+      <c r="AT26" s="4">
+        <f t="shared" si="49"/>
+        <v>89.4</v>
+      </c>
+      <c r="AU26" s="4">
+        <f t="shared" si="50"/>
+        <v>76.3</v>
+      </c>
+      <c r="AV26" s="4">
+        <f t="shared" si="50"/>
+        <v>55.2</v>
+      </c>
+      <c r="AW26" s="4">
+        <f t="shared" si="50"/>
+        <v>86.8</v>
+      </c>
+      <c r="AX26" s="4">
+        <f t="shared" si="50"/>
+        <v>13.100000000000001</v>
+      </c>
+      <c r="AY26" s="4">
+        <f t="shared" si="50"/>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AZ26" s="4">
+        <f t="shared" si="50"/>
+        <v>28.9</v>
+      </c>
+      <c r="BA26" s="4">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="BB26" s="4">
         <f t="shared" si="40"/>
-        <v>5.2</v>
-      </c>
-      <c r="AM26" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="BC26" s="4">
         <f t="shared" si="41"/>
-        <v>39.4</v>
-      </c>
-      <c r="AN26" s="4">
-        <f t="shared" si="42"/>
-        <v>13.100000000000001</v>
-      </c>
-      <c r="AO26" s="4">
-        <f t="shared" si="43"/>
-        <v>10.5</v>
-      </c>
-      <c r="AP26" s="4">
-        <f t="shared" si="44"/>
-        <v>86.8</v>
-      </c>
-      <c r="AQ26" s="4">
-        <f t="shared" si="45"/>
-        <v>55.2</v>
-      </c>
-      <c r="AR26" s="4">
-        <f t="shared" si="46"/>
-        <v>26.3</v>
-      </c>
-      <c r="AS26" s="4">
-        <f t="shared" si="47"/>
-        <v>89.4</v>
-      </c>
-      <c r="AT26" s="4">
-        <f t="shared" si="48"/>
-        <v>76.3</v>
-      </c>
-      <c r="AU26" s="4">
-        <f t="shared" si="48"/>
-        <v>55.2</v>
-      </c>
-      <c r="AV26" s="4">
-        <f t="shared" si="48"/>
-        <v>86.8</v>
-      </c>
-      <c r="AW26" s="4">
-        <f t="shared" si="48"/>
-        <v>13.100000000000001</v>
-      </c>
-      <c r="AX26" s="4">
-        <f t="shared" si="48"/>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="AY26" s="4">
-        <f t="shared" si="48"/>
-        <v>28.9</v>
-      </c>
-      <c r="AZ26" s="4">
-        <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BA26" s="4">
-        <f t="shared" si="38"/>
-        <v>28.9</v>
-      </c>
-      <c r="BB26" s="4">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="BC26" s="4">
+      <c r="BD26" s="4">
         <f t="shared" si="17"/>
         <v>81.599999999999994</v>
       </c>
-      <c r="BD26" s="4">
+      <c r="BE26" s="4">
         <f t="shared" si="18"/>
         <v>94.8</v>
       </c>
-      <c r="BE26" s="4">
+      <c r="BF26" s="4">
         <f t="shared" si="19"/>
         <v>10.5</v>
       </c>
-      <c r="BF26" s="4">
+      <c r="BG26" s="4">
         <f t="shared" si="20"/>
         <v>5.2</v>
       </c>
-      <c r="BG26" s="4">
+      <c r="BH26" s="4">
         <f t="shared" si="21"/>
         <v>84.2</v>
       </c>
-      <c r="BH26" s="4">
+      <c r="BI26" s="4">
         <f t="shared" si="22"/>
         <v>5.2</v>
       </c>
-      <c r="BI26" s="4">
+      <c r="BJ26" s="4">
         <f t="shared" si="23"/>
         <v>100</v>
       </c>
-      <c r="BJ26" s="4">
+      <c r="BK26" s="4">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
-      <c r="BK26" s="4">
+      <c r="BL26" s="4">
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="BL26" s="4">
+      <c r="BM26" s="4">
         <f t="shared" si="26"/>
         <v>89.4</v>
       </c>
-      <c r="BM26" s="4">
+      <c r="BN26" s="4">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO26" s="4">
+        <f t="shared" si="38"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -13069,120 +13271,128 @@
         <f t="shared" si="36"/>
         <v>5.2631578947368425E-2</v>
       </c>
-      <c r="AL27" s="4">
-        <f t="shared" si="40"/>
+      <c r="AJ27" s="9">
+        <f t="shared" si="37"/>
+        <v>16.690091356289528</v>
+      </c>
+      <c r="AM27" s="4">
+        <f t="shared" si="42"/>
         <v>60.5</v>
       </c>
-      <c r="AM27" s="4">
-        <f t="shared" si="41"/>
-        <v>36.799999999999997</v>
-      </c>
       <c r="AN27" s="4">
-        <f t="shared" si="42"/>
-        <v>31.5</v>
-      </c>
-      <c r="AO27" s="4">
         <f t="shared" si="43"/>
         <v>36.799999999999997</v>
       </c>
+      <c r="AO27" s="4">
+        <f t="shared" si="44"/>
+        <v>31.5</v>
+      </c>
       <c r="AP27" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AQ27" s="4">
+        <f t="shared" si="46"/>
         <v>21</v>
       </c>
-      <c r="AQ27" s="4">
-        <f t="shared" si="45"/>
+      <c r="AR27" s="4">
+        <f t="shared" si="47"/>
         <v>55.2</v>
       </c>
-      <c r="AR27" s="4">
-        <f t="shared" si="46"/>
+      <c r="AS27" s="4">
+        <f t="shared" si="48"/>
         <v>71</v>
       </c>
-      <c r="AS27" s="4">
-        <f t="shared" si="47"/>
+      <c r="AT27" s="4">
+        <f t="shared" si="49"/>
         <v>31.5</v>
       </c>
-      <c r="AT27" s="4">
-        <f t="shared" si="48"/>
+      <c r="AU27" s="4">
+        <f t="shared" si="50"/>
         <v>39.4</v>
       </c>
-      <c r="AU27" s="4">
-        <f t="shared" si="48"/>
+      <c r="AV27" s="4">
+        <f t="shared" si="50"/>
         <v>31.5</v>
       </c>
-      <c r="AV27" s="4">
-        <f t="shared" si="48"/>
+      <c r="AW27" s="4">
+        <f t="shared" si="50"/>
         <v>60.5</v>
       </c>
-      <c r="AW27" s="4">
-        <f t="shared" si="48"/>
+      <c r="AX27" s="4">
+        <f t="shared" si="50"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="AX27" s="4">
-        <f t="shared" si="48"/>
+      <c r="AY27" s="4">
+        <f t="shared" si="50"/>
         <v>57.8</v>
       </c>
-      <c r="AY27" s="4">
-        <f t="shared" si="48"/>
+      <c r="AZ27" s="4">
+        <f t="shared" si="50"/>
         <v>52.6</v>
       </c>
-      <c r="AZ27" s="4">
-        <f t="shared" si="48"/>
+      <c r="BA27" s="4">
+        <f t="shared" si="50"/>
         <v>94.699999999999989</v>
       </c>
-      <c r="BA27" s="4">
-        <f t="shared" si="38"/>
+      <c r="BB27" s="4">
+        <f t="shared" si="40"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="BB27" s="4">
-        <f t="shared" si="39"/>
+      <c r="BC27" s="4">
+        <f t="shared" si="41"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BC27" s="4">
+      <c r="BD27" s="4">
         <f t="shared" si="17"/>
         <v>21.099999999999994</v>
       </c>
-      <c r="BD27" s="4">
+      <c r="BE27" s="4">
         <f t="shared" si="18"/>
         <v>76.400000000000006</v>
       </c>
-      <c r="BE27" s="4">
+      <c r="BF27" s="4">
         <f t="shared" si="19"/>
         <v>28.9</v>
       </c>
-      <c r="BF27" s="4">
+      <c r="BG27" s="4">
         <f t="shared" si="20"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="BG27" s="4">
+      <c r="BH27" s="4">
         <f t="shared" si="21"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="BH27" s="4">
+      <c r="BI27" s="4">
         <f t="shared" si="22"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="BI27" s="4">
+      <c r="BJ27" s="4">
         <f t="shared" si="23"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="BJ27" s="4">
+      <c r="BK27" s="4">
         <f t="shared" si="24"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="BK27" s="4">
+      <c r="BL27" s="4">
         <f t="shared" si="25"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BL27" s="4">
+      <c r="BM27" s="4">
         <f t="shared" si="26"/>
         <v>21</v>
       </c>
-      <c r="BM27" s="4">
+      <c r="BN27" s="4">
         <f t="shared" si="27"/>
         <v>31.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO27" s="4">
+        <f t="shared" si="38"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -13301,120 +13511,128 @@
         <f t="shared" si="36"/>
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="AL28" s="4">
+      <c r="AJ28" s="9">
+        <f t="shared" si="37"/>
+        <v>12.296632614453273</v>
+      </c>
+      <c r="AM28" s="4">
+        <f t="shared" si="42"/>
+        <v>42.1</v>
+      </c>
+      <c r="AN28" s="4">
+        <f t="shared" si="43"/>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AO28" s="4">
+        <f t="shared" si="44"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AP28" s="4">
+        <f t="shared" si="45"/>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AQ28" s="4">
+        <f t="shared" si="46"/>
+        <v>39.4</v>
+      </c>
+      <c r="AR28" s="4">
+        <f t="shared" si="47"/>
+        <v>15.7</v>
+      </c>
+      <c r="AS28" s="4">
+        <f t="shared" si="48"/>
+        <v>21</v>
+      </c>
+      <c r="AT28" s="4">
+        <f t="shared" si="49"/>
+        <v>13.100000000000001</v>
+      </c>
+      <c r="AU28" s="4">
+        <f t="shared" si="50"/>
+        <v>39.4</v>
+      </c>
+      <c r="AV28" s="4">
+        <f t="shared" si="50"/>
+        <v>42.1</v>
+      </c>
+      <c r="AW28" s="4">
+        <f t="shared" si="50"/>
+        <v>28.9</v>
+      </c>
+      <c r="AX28" s="4">
+        <f t="shared" si="50"/>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AY28" s="4">
+        <f t="shared" si="50"/>
+        <v>26.3</v>
+      </c>
+      <c r="AZ28" s="4">
+        <f t="shared" si="50"/>
+        <v>28.9</v>
+      </c>
+      <c r="BA28" s="4">
+        <f t="shared" si="50"/>
+        <v>84.2</v>
+      </c>
+      <c r="BB28" s="4">
         <f t="shared" si="40"/>
         <v>42.1</v>
       </c>
-      <c r="AM28" s="4">
+      <c r="BC28" s="4">
         <f t="shared" si="41"/>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="AN28" s="4">
-        <f t="shared" si="42"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="AO28" s="4">
-        <f t="shared" si="43"/>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="AP28" s="4">
-        <f t="shared" si="44"/>
-        <v>39.4</v>
-      </c>
-      <c r="AQ28" s="4">
-        <f t="shared" si="45"/>
-        <v>15.7</v>
-      </c>
-      <c r="AR28" s="4">
-        <f t="shared" si="46"/>
-        <v>21</v>
-      </c>
-      <c r="AS28" s="4">
-        <f t="shared" si="47"/>
-        <v>13.100000000000001</v>
-      </c>
-      <c r="AT28" s="4">
-        <f t="shared" si="48"/>
-        <v>39.4</v>
-      </c>
-      <c r="AU28" s="4">
-        <f t="shared" si="48"/>
-        <v>42.1</v>
-      </c>
-      <c r="AV28" s="4">
-        <f t="shared" si="48"/>
-        <v>28.9</v>
-      </c>
-      <c r="AW28" s="4">
-        <f t="shared" si="48"/>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="AX28" s="4">
-        <f t="shared" si="48"/>
-        <v>26.3</v>
-      </c>
-      <c r="AY28" s="4">
-        <f t="shared" si="48"/>
-        <v>28.9</v>
-      </c>
-      <c r="AZ28" s="4">
-        <f t="shared" si="48"/>
-        <v>84.2</v>
-      </c>
-      <c r="BA28" s="4">
-        <f t="shared" si="38"/>
-        <v>42.1</v>
-      </c>
-      <c r="BB28" s="4">
-        <f t="shared" si="39"/>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="BC28" s="4">
+      <c r="BD28" s="4">
         <f t="shared" si="17"/>
         <v>68.5</v>
       </c>
-      <c r="BD28" s="4">
+      <c r="BE28" s="4">
         <f t="shared" si="18"/>
         <v>68.5</v>
       </c>
-      <c r="BE28" s="4">
+      <c r="BF28" s="4">
         <f t="shared" si="19"/>
         <v>52.6</v>
       </c>
-      <c r="BF28" s="4">
+      <c r="BG28" s="4">
         <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="BG28" s="4">
+      <c r="BH28" s="4">
         <f t="shared" si="21"/>
         <v>50</v>
       </c>
-      <c r="BH28" s="4">
+      <c r="BI28" s="4">
         <f t="shared" si="22"/>
         <v>89.4</v>
       </c>
-      <c r="BI28" s="4">
+      <c r="BJ28" s="4">
         <f t="shared" si="23"/>
         <v>26.3</v>
       </c>
-      <c r="BJ28" s="4">
+      <c r="BK28" s="4">
         <f t="shared" si="24"/>
         <v>26.3</v>
       </c>
-      <c r="BK28" s="4">
+      <c r="BL28" s="4">
         <f t="shared" si="25"/>
         <v>31.5</v>
       </c>
-      <c r="BL28" s="4">
+      <c r="BM28" s="4">
         <f t="shared" si="26"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="BM28" s="4">
+      <c r="BN28" s="4">
         <f t="shared" si="27"/>
         <v>36.799999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO28" s="4">
+        <f t="shared" si="38"/>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -13533,120 +13751,128 @@
         <f t="shared" si="36"/>
         <v>0.10714285714285715</v>
       </c>
-      <c r="AL29" s="4">
-        <f t="shared" si="40"/>
+      <c r="AJ29" s="9">
+        <f t="shared" si="37"/>
+        <v>17.730496453900709</v>
+      </c>
+      <c r="AM29" s="4">
+        <f t="shared" si="42"/>
         <v>10.5</v>
       </c>
-      <c r="AM29" s="4">
-        <f t="shared" si="41"/>
+      <c r="AN29" s="4">
+        <f t="shared" si="43"/>
         <v>31.5</v>
       </c>
-      <c r="AN29" s="4">
-        <f t="shared" si="42"/>
+      <c r="AO29" s="4">
+        <f t="shared" si="44"/>
         <v>31.5</v>
       </c>
-      <c r="AO29" s="4">
-        <f t="shared" si="43"/>
+      <c r="AP29" s="4">
+        <f t="shared" si="45"/>
         <v>28.9</v>
       </c>
-      <c r="AP29" s="4">
-        <f t="shared" si="44"/>
+      <c r="AQ29" s="4">
+        <f t="shared" si="46"/>
         <v>42.1</v>
       </c>
-      <c r="AQ29" s="4">
-        <f t="shared" si="45"/>
+      <c r="AR29" s="4">
+        <f t="shared" si="47"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="AR29" s="4">
-        <f t="shared" si="46"/>
-        <v>34.200000000000003</v>
-      </c>
       <c r="AS29" s="4">
-        <f t="shared" si="47"/>
-        <v>50</v>
-      </c>
-      <c r="AT29" s="4">
         <f t="shared" si="48"/>
         <v>34.200000000000003</v>
       </c>
+      <c r="AT29" s="4">
+        <f t="shared" si="49"/>
+        <v>50</v>
+      </c>
       <c r="AU29" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AV29" s="4">
+        <f t="shared" si="50"/>
         <v>44.7</v>
       </c>
-      <c r="AV29" s="4">
-        <f t="shared" si="48"/>
+      <c r="AW29" s="4">
+        <f t="shared" si="50"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="AW29" s="4">
-        <f t="shared" si="48"/>
+      <c r="AX29" s="4">
+        <f t="shared" si="50"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="AX29" s="4">
-        <f t="shared" si="48"/>
+      <c r="AY29" s="4">
+        <f t="shared" si="50"/>
         <v>42.1</v>
       </c>
-      <c r="AY29" s="4">
-        <f t="shared" si="48"/>
+      <c r="AZ29" s="4">
+        <f t="shared" si="50"/>
         <v>47.3</v>
       </c>
-      <c r="AZ29" s="4">
-        <f t="shared" si="48"/>
+      <c r="BA29" s="4">
+        <f t="shared" si="50"/>
         <v>39.4</v>
       </c>
-      <c r="BA29" s="4">
-        <f t="shared" si="38"/>
+      <c r="BB29" s="4">
+        <f t="shared" si="40"/>
         <v>97.3</v>
       </c>
-      <c r="BB29" s="4">
-        <f t="shared" si="39"/>
+      <c r="BC29" s="4">
+        <f t="shared" si="41"/>
         <v>44.7</v>
       </c>
-      <c r="BC29" s="4">
+      <c r="BD29" s="4">
         <f t="shared" si="17"/>
         <v>21.099999999999994</v>
       </c>
-      <c r="BD29" s="4">
+      <c r="BE29" s="4">
         <f t="shared" si="18"/>
         <v>34.299999999999997</v>
       </c>
-      <c r="BE29" s="4">
-        <f t="shared" ref="BE29:BE49" si="49">(PERCENTRANK(W$3:W$78,W29))*100</f>
+      <c r="BF29" s="4">
+        <f t="shared" ref="BF29:BF41" si="51">(PERCENTRANK(W$3:W$78,W29))*100</f>
         <v>31.5</v>
       </c>
-      <c r="BF29" s="4">
-        <f t="shared" ref="BF29:BF49" si="50">(PERCENTRANK(X$3:X$78,X29))*100</f>
+      <c r="BG29" s="4">
+        <f t="shared" ref="BG29:BG41" si="52">(PERCENTRANK(X$3:X$78,X29))*100</f>
         <v>36.799999999999997</v>
       </c>
-      <c r="BG29" s="4">
-        <f t="shared" ref="BG29:BG49" si="51">(PERCENTRANK(Y$3:Y$78,Y29))*100</f>
+      <c r="BH29" s="4">
+        <f t="shared" ref="BH29:BH41" si="53">(PERCENTRANK(Y$3:Y$78,Y29))*100</f>
         <v>36.799999999999997</v>
       </c>
-      <c r="BH29" s="4">
-        <f t="shared" ref="BH29:BH49" si="52">(PERCENTRANK(Z$3:Z$78,Z29))*100</f>
+      <c r="BI29" s="4">
+        <f t="shared" ref="BI29:BI41" si="54">(PERCENTRANK(Z$3:Z$78,Z29))*100</f>
         <v>28.9</v>
       </c>
-      <c r="BI29" s="4">
-        <f t="shared" ref="BI29:BI49" si="53">(PERCENTRANK(AA$3:AA$78,AA29))*100</f>
+      <c r="BJ29" s="4">
+        <f t="shared" ref="BJ29:BJ41" si="55">(PERCENTRANK(AA$3:AA$78,AA29))*100</f>
         <v>39.4</v>
       </c>
-      <c r="BJ29" s="4">
-        <f t="shared" ref="BJ29:BJ49" si="54">(PERCENTRANK(AB$3:AB$78,AB29))*100</f>
+      <c r="BK29" s="4">
+        <f t="shared" ref="BK29:BK41" si="56">(PERCENTRANK(AB$3:AB$78,AB29))*100</f>
         <v>39.4</v>
       </c>
-      <c r="BK29" s="4">
-        <f t="shared" ref="BK29:BK49" si="55">(PERCENTRANK(AC$3:AC$78,AC29))*100</f>
+      <c r="BL29" s="4">
+        <f t="shared" ref="BL29:BL41" si="57">(PERCENTRANK(AC$3:AC$78,AC29))*100</f>
         <v>23.599999999999998</v>
       </c>
-      <c r="BL29" s="4">
-        <f t="shared" ref="BL29:BL49" si="56">(PERCENTRANK(AD$3:AD$78,AD29))*100</f>
+      <c r="BM29" s="4">
+        <f t="shared" ref="BM29:BM41" si="58">(PERCENTRANK(AD$3:AD$78,AD29))*100</f>
         <v>34.200000000000003</v>
       </c>
-      <c r="BM29" s="4">
+      <c r="BN29" s="4">
         <f t="shared" si="27"/>
         <v>44.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO29" s="4">
+        <f t="shared" si="38"/>
+        <v>13.200000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -13765,120 +13991,128 @@
         <f t="shared" si="36"/>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="AL30" s="4">
+      <c r="AJ30" s="9">
+        <f t="shared" si="37"/>
+        <v>8.5324232081911244</v>
+      </c>
+      <c r="AM30" s="4">
+        <f t="shared" si="42"/>
+        <v>21</v>
+      </c>
+      <c r="AN30" s="4">
+        <f t="shared" si="43"/>
+        <v>28.9</v>
+      </c>
+      <c r="AO30" s="4">
+        <f t="shared" si="44"/>
+        <v>39.4</v>
+      </c>
+      <c r="AP30" s="4">
+        <f t="shared" si="45"/>
+        <v>31.5</v>
+      </c>
+      <c r="AQ30" s="4">
+        <f t="shared" si="46"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AR30" s="4">
+        <f t="shared" si="47"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AS30" s="4">
+        <f t="shared" si="48"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AT30" s="4">
+        <f t="shared" si="49"/>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AU30" s="4">
+        <f t="shared" si="50"/>
+        <v>10.5</v>
+      </c>
+      <c r="AV30" s="4">
+        <f t="shared" si="50"/>
+        <v>7.8</v>
+      </c>
+      <c r="AW30" s="4">
+        <f t="shared" si="50"/>
+        <v>86.8</v>
+      </c>
+      <c r="AX30" s="4">
+        <f t="shared" si="50"/>
+        <v>5.2</v>
+      </c>
+      <c r="AY30" s="4">
+        <f t="shared" si="50"/>
+        <v>50</v>
+      </c>
+      <c r="AZ30" s="4">
+        <f t="shared" si="50"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="BA30" s="4">
+        <f t="shared" si="50"/>
+        <v>92.100000000000009</v>
+      </c>
+      <c r="BB30" s="4">
         <f t="shared" si="40"/>
-        <v>21</v>
-      </c>
-      <c r="AM30" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="BC30" s="4">
         <f t="shared" si="41"/>
-        <v>28.9</v>
-      </c>
-      <c r="AN30" s="4">
-        <f t="shared" si="42"/>
-        <v>39.4</v>
-      </c>
-      <c r="AO30" s="4">
-        <f t="shared" si="43"/>
-        <v>31.5</v>
-      </c>
-      <c r="AP30" s="4">
-        <f t="shared" si="44"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="AQ30" s="4">
-        <f t="shared" si="45"/>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AR30" s="4">
-        <f t="shared" si="46"/>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AS30" s="4">
-        <f t="shared" si="47"/>
-        <v>78.900000000000006</v>
-      </c>
-      <c r="AT30" s="4">
-        <f t="shared" si="48"/>
-        <v>10.5</v>
-      </c>
-      <c r="AU30" s="4">
-        <f t="shared" si="48"/>
-        <v>7.8</v>
-      </c>
-      <c r="AV30" s="4">
-        <f t="shared" si="48"/>
-        <v>86.8</v>
-      </c>
-      <c r="AW30" s="4">
-        <f t="shared" si="48"/>
-        <v>5.2</v>
-      </c>
-      <c r="AX30" s="4">
-        <f t="shared" si="48"/>
-        <v>50</v>
-      </c>
-      <c r="AY30" s="4">
-        <f t="shared" si="48"/>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="AZ30" s="4">
-        <f t="shared" si="48"/>
-        <v>92.100000000000009</v>
-      </c>
-      <c r="BA30" s="4">
-        <f t="shared" si="38"/>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="BB30" s="4">
-        <f t="shared" si="39"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BC30" s="4">
+      <c r="BD30" s="4">
         <f t="shared" si="17"/>
         <v>89.5</v>
       </c>
-      <c r="BD30" s="4">
+      <c r="BE30" s="4">
         <f t="shared" si="18"/>
         <v>68.5</v>
       </c>
-      <c r="BE30" s="4">
-        <f t="shared" si="49"/>
+      <c r="BF30" s="4">
+        <f t="shared" si="51"/>
         <v>55.2</v>
       </c>
-      <c r="BF30" s="4">
-        <f t="shared" si="50"/>
+      <c r="BG30" s="4">
+        <f t="shared" si="52"/>
         <v>55.2</v>
       </c>
-      <c r="BG30" s="4">
-        <f t="shared" si="51"/>
+      <c r="BH30" s="4">
+        <f t="shared" si="53"/>
         <v>52.6</v>
       </c>
-      <c r="BH30" s="4">
-        <f t="shared" si="52"/>
+      <c r="BI30" s="4">
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
-      <c r="BI30" s="4">
-        <f t="shared" si="53"/>
+      <c r="BJ30" s="4">
+        <f t="shared" si="55"/>
         <v>57.8</v>
       </c>
-      <c r="BJ30" s="4">
-        <f t="shared" si="54"/>
+      <c r="BK30" s="4">
+        <f t="shared" si="56"/>
         <v>57.8</v>
       </c>
-      <c r="BK30" s="4">
-        <f t="shared" si="55"/>
+      <c r="BL30" s="4">
+        <f t="shared" si="57"/>
         <v>63.1</v>
       </c>
-      <c r="BL30" s="4">
-        <f t="shared" si="56"/>
+      <c r="BM30" s="4">
+        <f t="shared" si="58"/>
         <v>63.1</v>
       </c>
-      <c r="BM30" s="4">
+      <c r="BN30" s="4">
         <f t="shared" si="27"/>
         <v>28.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO30" s="4">
+        <f t="shared" si="38"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -13997,120 +14231,128 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="4">
+      <c r="AJ31" s="9">
+        <f t="shared" si="37"/>
+        <v>11.206574523720585</v>
+      </c>
+      <c r="AM31" s="4">
+        <f t="shared" si="42"/>
+        <v>47.3</v>
+      </c>
+      <c r="AN31" s="4">
+        <f t="shared" si="43"/>
+        <v>26.3</v>
+      </c>
+      <c r="AO31" s="4">
+        <f t="shared" si="44"/>
+        <v>28.9</v>
+      </c>
+      <c r="AP31" s="4">
+        <f t="shared" si="45"/>
+        <v>42.1</v>
+      </c>
+      <c r="AQ31" s="4">
+        <f t="shared" si="46"/>
+        <v>7.8</v>
+      </c>
+      <c r="AR31" s="4">
+        <f t="shared" si="47"/>
+        <v>55.2</v>
+      </c>
+      <c r="AS31" s="4">
+        <f t="shared" si="48"/>
+        <v>81.5</v>
+      </c>
+      <c r="AT31" s="4">
+        <f t="shared" si="49"/>
+        <v>13.100000000000001</v>
+      </c>
+      <c r="AU31" s="4">
+        <f t="shared" si="50"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AV31" s="4">
+        <f t="shared" si="50"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AW31" s="4">
+        <f t="shared" si="50"/>
+        <v>42.1</v>
+      </c>
+      <c r="AX31" s="4">
+        <f t="shared" si="50"/>
+        <v>23.599999999999998</v>
+      </c>
+      <c r="AY31" s="4">
+        <f t="shared" si="50"/>
+        <v>63.1</v>
+      </c>
+      <c r="AZ31" s="4">
+        <f t="shared" si="50"/>
+        <v>57.8</v>
+      </c>
+      <c r="BA31" s="4">
+        <f t="shared" si="50"/>
+        <v>10.5</v>
+      </c>
+      <c r="BB31" s="4">
         <f t="shared" si="40"/>
-        <v>47.3</v>
-      </c>
-      <c r="AM31" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="BC31" s="4">
         <f t="shared" si="41"/>
-        <v>26.3</v>
-      </c>
-      <c r="AN31" s="4">
-        <f t="shared" si="42"/>
-        <v>28.9</v>
-      </c>
-      <c r="AO31" s="4">
-        <f t="shared" si="43"/>
-        <v>42.1</v>
-      </c>
-      <c r="AP31" s="4">
-        <f t="shared" si="44"/>
-        <v>7.8</v>
-      </c>
-      <c r="AQ31" s="4">
-        <f t="shared" si="45"/>
-        <v>55.2</v>
-      </c>
-      <c r="AR31" s="4">
-        <f t="shared" si="46"/>
-        <v>81.5</v>
-      </c>
-      <c r="AS31" s="4">
-        <f t="shared" si="47"/>
-        <v>13.100000000000001</v>
-      </c>
-      <c r="AT31" s="4">
-        <f t="shared" si="48"/>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AU31" s="4">
-        <f t="shared" si="48"/>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AV31" s="4">
-        <f t="shared" si="48"/>
-        <v>42.1</v>
-      </c>
-      <c r="AW31" s="4">
-        <f t="shared" si="48"/>
-        <v>23.599999999999998</v>
-      </c>
-      <c r="AX31" s="4">
-        <f t="shared" si="48"/>
-        <v>63.1</v>
-      </c>
-      <c r="AY31" s="4">
-        <f t="shared" si="48"/>
-        <v>57.8</v>
-      </c>
-      <c r="AZ31" s="4">
-        <f t="shared" si="48"/>
-        <v>10.5</v>
-      </c>
-      <c r="BA31" s="4">
-        <f t="shared" si="38"/>
-        <v>81.5</v>
-      </c>
-      <c r="BB31" s="4">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="BC31" s="4">
+      <c r="BD31" s="4">
         <f t="shared" si="17"/>
         <v>73.7</v>
       </c>
-      <c r="BD31" s="4">
+      <c r="BE31" s="4">
         <f t="shared" si="18"/>
         <v>42.2</v>
       </c>
-      <c r="BE31" s="4">
-        <f t="shared" si="49"/>
+      <c r="BF31" s="4">
+        <f t="shared" si="51"/>
         <v>15.7</v>
       </c>
-      <c r="BF31" s="4">
-        <f t="shared" si="50"/>
+      <c r="BG31" s="4">
+        <f t="shared" si="52"/>
         <v>10.5</v>
       </c>
-      <c r="BG31" s="4">
-        <f t="shared" si="51"/>
+      <c r="BH31" s="4">
+        <f t="shared" si="53"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="BH31" s="4">
-        <f t="shared" si="52"/>
+      <c r="BI31" s="4">
+        <f t="shared" si="54"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BI31" s="4">
-        <f t="shared" si="53"/>
-        <v>7.8</v>
-      </c>
       <c r="BJ31" s="4">
-        <f t="shared" si="54"/>
-        <v>7.8</v>
-      </c>
-      <c r="BK31" s="4">
         <f t="shared" si="55"/>
         <v>7.8</v>
       </c>
-      <c r="BL31" s="4">
+      <c r="BK31" s="4">
         <f t="shared" si="56"/>
         <v>7.8</v>
       </c>
+      <c r="BL31" s="4">
+        <f t="shared" si="57"/>
+        <v>7.8</v>
+      </c>
       <c r="BM31" s="4">
+        <f t="shared" si="58"/>
+        <v>7.8</v>
+      </c>
+      <c r="BN31" s="4">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO31" s="4">
+        <f t="shared" si="38"/>
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -14229,120 +14471,128 @@
         <f t="shared" si="36"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="AL32" s="4">
-        <f t="shared" si="40"/>
+      <c r="AJ32" s="9">
+        <f t="shared" si="37"/>
+        <v>10.570824524312897</v>
+      </c>
+      <c r="AM32" s="4">
+        <f t="shared" si="42"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="AM32" s="4">
-        <f t="shared" si="41"/>
+      <c r="AN32" s="4">
+        <f t="shared" si="43"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="AN32" s="4">
-        <f t="shared" si="42"/>
-        <v>10.5</v>
-      </c>
       <c r="AO32" s="4">
-        <f t="shared" si="43"/>
-        <v>26.3</v>
-      </c>
-      <c r="AP32" s="4">
         <f t="shared" si="44"/>
         <v>10.5</v>
       </c>
+      <c r="AP32" s="4">
+        <f t="shared" si="45"/>
+        <v>26.3</v>
+      </c>
       <c r="AQ32" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
+        <v>10.5</v>
+      </c>
+      <c r="AR32" s="4">
+        <f t="shared" si="47"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="AR32" s="4">
-        <f t="shared" si="46"/>
+      <c r="AS32" s="4">
+        <f t="shared" si="48"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="AS32" s="4">
-        <f t="shared" si="47"/>
+      <c r="AT32" s="4">
+        <f t="shared" si="49"/>
         <v>47.3</v>
       </c>
-      <c r="AT32" s="4">
-        <f t="shared" si="48"/>
+      <c r="AU32" s="4">
+        <f t="shared" si="50"/>
         <v>44.7</v>
       </c>
-      <c r="AU32" s="4">
-        <f t="shared" si="48"/>
+      <c r="AV32" s="4">
+        <f t="shared" si="50"/>
         <v>55.2</v>
       </c>
-      <c r="AV32" s="4">
-        <f t="shared" si="48"/>
+      <c r="AW32" s="4">
+        <f t="shared" si="50"/>
         <v>26.3</v>
       </c>
-      <c r="AW32" s="4">
-        <f t="shared" si="48"/>
+      <c r="AX32" s="4">
+        <f t="shared" si="50"/>
         <v>21</v>
       </c>
-      <c r="AX32" s="4">
-        <f t="shared" si="48"/>
+      <c r="AY32" s="4">
+        <f t="shared" si="50"/>
         <v>7.8</v>
       </c>
-      <c r="AY32" s="4">
-        <f t="shared" si="48"/>
+      <c r="AZ32" s="4">
+        <f t="shared" si="50"/>
         <v>5.2</v>
       </c>
-      <c r="AZ32" s="4">
-        <f t="shared" si="48"/>
+      <c r="BA32" s="4">
+        <f t="shared" si="50"/>
         <v>28.9</v>
       </c>
-      <c r="BA32" s="4">
-        <f t="shared" si="38"/>
+      <c r="BB32" s="4">
+        <f t="shared" si="40"/>
         <v>55.2</v>
       </c>
-      <c r="BB32" s="4">
-        <f t="shared" si="39"/>
+      <c r="BC32" s="4">
+        <f t="shared" si="41"/>
         <v>84.2</v>
       </c>
-      <c r="BC32" s="4">
+      <c r="BD32" s="4">
         <f t="shared" si="17"/>
         <v>81.599999999999994</v>
       </c>
-      <c r="BD32" s="4">
+      <c r="BE32" s="4">
         <f t="shared" si="18"/>
         <v>97.4</v>
       </c>
-      <c r="BE32" s="4">
-        <f t="shared" si="49"/>
+      <c r="BF32" s="4">
+        <f t="shared" si="51"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BF32" s="4">
-        <f t="shared" si="50"/>
+      <c r="BG32" s="4">
+        <f t="shared" si="52"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="BG32" s="4">
-        <f t="shared" si="51"/>
+      <c r="BH32" s="4">
+        <f t="shared" si="53"/>
         <v>2.6</v>
       </c>
-      <c r="BH32" s="4">
-        <f t="shared" si="52"/>
+      <c r="BI32" s="4">
+        <f t="shared" si="54"/>
         <v>52.6</v>
       </c>
-      <c r="BI32" s="4">
-        <f t="shared" si="53"/>
+      <c r="BJ32" s="4">
+        <f t="shared" si="55"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="BJ32" s="4">
-        <f t="shared" si="54"/>
+      <c r="BK32" s="4">
+        <f t="shared" si="56"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="BK32" s="4">
-        <f t="shared" si="55"/>
+      <c r="BL32" s="4">
+        <f t="shared" si="57"/>
         <v>28.9</v>
       </c>
-      <c r="BL32" s="4">
-        <f t="shared" si="56"/>
+      <c r="BM32" s="4">
+        <f t="shared" si="58"/>
         <v>10.5</v>
       </c>
-      <c r="BM32" s="4">
+      <c r="BN32" s="4">
         <f t="shared" si="27"/>
         <v>89.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO32" s="4">
+        <f t="shared" si="38"/>
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -14461,120 +14711,128 @@
         <f t="shared" si="36"/>
         <v>0.23076923076923075</v>
       </c>
-      <c r="AL33" s="4">
-        <f t="shared" si="40"/>
+      <c r="AJ33" s="9">
+        <f t="shared" si="37"/>
+        <v>16.462841015992474</v>
+      </c>
+      <c r="AM33" s="4">
+        <f t="shared" si="42"/>
         <v>10.5</v>
       </c>
-      <c r="AM33" s="4">
-        <f t="shared" si="41"/>
-        <v>18.399999999999999</v>
-      </c>
       <c r="AN33" s="4">
-        <f t="shared" si="42"/>
-        <v>21</v>
-      </c>
-      <c r="AO33" s="4">
         <f t="shared" si="43"/>
         <v>18.399999999999999</v>
       </c>
+      <c r="AO33" s="4">
+        <f t="shared" si="44"/>
+        <v>21</v>
+      </c>
       <c r="AP33" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AQ33" s="4">
+        <f t="shared" si="46"/>
         <v>76.3</v>
       </c>
-      <c r="AQ33" s="4">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
       <c r="AR33" s="4">
-        <f t="shared" si="46"/>
-        <v>7.8</v>
-      </c>
-      <c r="AS33" s="4">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
+      <c r="AS33" s="4">
+        <f t="shared" si="48"/>
+        <v>7.8</v>
+      </c>
       <c r="AT33" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AU33" s="4">
+        <f t="shared" si="50"/>
         <v>60.5</v>
       </c>
-      <c r="AU33" s="4">
-        <f t="shared" si="48"/>
+      <c r="AV33" s="4">
+        <f t="shared" si="50"/>
         <v>65.7</v>
       </c>
-      <c r="AV33" s="4">
-        <f t="shared" si="48"/>
+      <c r="AW33" s="4">
+        <f t="shared" si="50"/>
         <v>39.4</v>
       </c>
-      <c r="AW33" s="4">
-        <f t="shared" si="48"/>
+      <c r="AX33" s="4">
+        <f t="shared" si="50"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="AX33" s="4">
-        <f t="shared" si="48"/>
+      <c r="AY33" s="4">
+        <f t="shared" si="50"/>
         <v>21</v>
       </c>
-      <c r="AY33" s="4">
-        <f t="shared" si="48"/>
+      <c r="AZ33" s="4">
+        <f t="shared" si="50"/>
         <v>42.1</v>
       </c>
-      <c r="AZ33" s="4">
-        <f t="shared" si="48"/>
+      <c r="BA33" s="4">
+        <f t="shared" si="50"/>
         <v>2.6</v>
       </c>
-      <c r="BA33" s="4">
-        <f t="shared" si="38"/>
+      <c r="BB33" s="4">
+        <f t="shared" si="40"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="BB33" s="4">
-        <f t="shared" si="39"/>
+      <c r="BC33" s="4">
+        <f t="shared" si="41"/>
         <v>86.8</v>
       </c>
-      <c r="BC33" s="4">
+      <c r="BD33" s="4">
         <f t="shared" si="17"/>
         <v>63.2</v>
       </c>
-      <c r="BD33" s="4">
+      <c r="BE33" s="4">
         <f t="shared" si="18"/>
         <v>39.5</v>
       </c>
-      <c r="BE33" s="4">
-        <f t="shared" si="49"/>
+      <c r="BF33" s="4">
+        <f t="shared" si="51"/>
         <v>44.7</v>
       </c>
-      <c r="BF33" s="4">
-        <f t="shared" si="50"/>
+      <c r="BG33" s="4">
+        <f t="shared" si="52"/>
         <v>39.4</v>
       </c>
-      <c r="BG33" s="4">
-        <f t="shared" si="51"/>
+      <c r="BH33" s="4">
+        <f t="shared" si="53"/>
         <v>60.5</v>
       </c>
-      <c r="BH33" s="4">
-        <f t="shared" si="52"/>
+      <c r="BI33" s="4">
+        <f t="shared" si="54"/>
         <v>2.6</v>
       </c>
-      <c r="BI33" s="4">
-        <f t="shared" si="53"/>
+      <c r="BJ33" s="4">
+        <f t="shared" si="55"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="BJ33" s="4">
-        <f t="shared" si="54"/>
+      <c r="BK33" s="4">
+        <f t="shared" si="56"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="BK33" s="4">
-        <f t="shared" si="55"/>
+      <c r="BL33" s="4">
+        <f t="shared" si="57"/>
         <v>50</v>
       </c>
-      <c r="BL33" s="4">
-        <f t="shared" si="56"/>
+      <c r="BM33" s="4">
+        <f t="shared" si="58"/>
         <v>52.6</v>
       </c>
-      <c r="BM33" s="4">
+      <c r="BN33" s="4">
         <f t="shared" si="27"/>
         <v>84.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO33" s="4">
+        <f t="shared" si="38"/>
+        <v>21.099999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -14693,120 +14951,128 @@
         <f t="shared" si="36"/>
         <v>0.13636363636363635</v>
       </c>
-      <c r="AL34" s="4">
+      <c r="AJ34" s="9">
+        <f t="shared" si="37"/>
+        <v>19.977168949771691</v>
+      </c>
+      <c r="AM34" s="4">
+        <f t="shared" si="42"/>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AN34" s="4">
+        <f t="shared" si="43"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AO34" s="4">
+        <f t="shared" si="44"/>
+        <v>21</v>
+      </c>
+      <c r="AP34" s="4">
+        <f t="shared" si="45"/>
+        <v>7.8</v>
+      </c>
+      <c r="AQ34" s="4">
+        <f t="shared" si="46"/>
+        <v>94.699999999999989</v>
+      </c>
+      <c r="AR34" s="4">
+        <f t="shared" si="47"/>
+        <v>47.3</v>
+      </c>
+      <c r="AS34" s="4">
+        <f t="shared" si="48"/>
+        <v>21</v>
+      </c>
+      <c r="AT34" s="4">
+        <f t="shared" si="49"/>
+        <v>84.2</v>
+      </c>
+      <c r="AU34" s="4">
+        <f t="shared" si="50"/>
+        <v>31.5</v>
+      </c>
+      <c r="AV34" s="4">
+        <f t="shared" si="50"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AW34" s="4">
+        <f t="shared" si="50"/>
+        <v>86.8</v>
+      </c>
+      <c r="AX34" s="4">
+        <f t="shared" si="50"/>
+        <v>65.7</v>
+      </c>
+      <c r="AY34" s="4">
+        <f t="shared" si="50"/>
+        <v>44.7</v>
+      </c>
+      <c r="AZ34" s="4">
+        <f t="shared" si="50"/>
+        <v>50</v>
+      </c>
+      <c r="BA34" s="4">
+        <f t="shared" si="50"/>
+        <v>23.599999999999998</v>
+      </c>
+      <c r="BB34" s="4">
         <f t="shared" si="40"/>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="AM34" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="BC34" s="4">
         <f t="shared" si="41"/>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AN34" s="4">
-        <f t="shared" si="42"/>
-        <v>21</v>
-      </c>
-      <c r="AO34" s="4">
-        <f t="shared" si="43"/>
-        <v>7.8</v>
-      </c>
-      <c r="AP34" s="4">
-        <f t="shared" si="44"/>
-        <v>94.699999999999989</v>
-      </c>
-      <c r="AQ34" s="4">
-        <f t="shared" si="45"/>
-        <v>47.3</v>
-      </c>
-      <c r="AR34" s="4">
-        <f t="shared" si="46"/>
-        <v>21</v>
-      </c>
-      <c r="AS34" s="4">
-        <f t="shared" si="47"/>
-        <v>84.2</v>
-      </c>
-      <c r="AT34" s="4">
-        <f t="shared" si="48"/>
-        <v>31.5</v>
-      </c>
-      <c r="AU34" s="4">
-        <f t="shared" si="48"/>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AV34" s="4">
-        <f t="shared" si="48"/>
-        <v>86.8</v>
-      </c>
-      <c r="AW34" s="4">
-        <f t="shared" si="48"/>
-        <v>65.7</v>
-      </c>
-      <c r="AX34" s="4">
-        <f t="shared" si="48"/>
         <v>44.7</v>
       </c>
-      <c r="AY34" s="4">
-        <f t="shared" si="48"/>
-        <v>50</v>
-      </c>
-      <c r="AZ34" s="4">
-        <f t="shared" si="48"/>
-        <v>23.599999999999998</v>
-      </c>
-      <c r="BA34" s="4">
-        <f t="shared" si="38"/>
-        <v>5.2</v>
-      </c>
-      <c r="BB34" s="4">
-        <f t="shared" si="39"/>
-        <v>44.7</v>
-      </c>
-      <c r="BC34" s="4">
+      <c r="BD34" s="4">
         <f t="shared" si="17"/>
         <v>63.2</v>
       </c>
-      <c r="BD34" s="4">
+      <c r="BE34" s="4">
         <f t="shared" si="18"/>
         <v>52.7</v>
       </c>
-      <c r="BE34" s="4">
-        <f t="shared" si="49"/>
+      <c r="BF34" s="4">
+        <f t="shared" si="51"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="BF34" s="4">
-        <f t="shared" si="50"/>
+      <c r="BG34" s="4">
+        <f t="shared" si="52"/>
         <v>7.8</v>
       </c>
-      <c r="BG34" s="4">
-        <f t="shared" si="51"/>
-        <v>97.3</v>
-      </c>
       <c r="BH34" s="4">
-        <f t="shared" si="52"/>
-        <v>26.3</v>
-      </c>
-      <c r="BI34" s="4">
         <f t="shared" si="53"/>
         <v>97.3</v>
       </c>
+      <c r="BI34" s="4">
+        <f t="shared" si="54"/>
+        <v>26.3</v>
+      </c>
       <c r="BJ34" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>97.3</v>
       </c>
       <c r="BK34" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
+        <v>97.3</v>
+      </c>
+      <c r="BL34" s="4">
+        <f t="shared" si="57"/>
         <v>89.4</v>
       </c>
-      <c r="BL34" s="4">
-        <f t="shared" si="56"/>
+      <c r="BM34" s="4">
+        <f t="shared" si="58"/>
         <v>100</v>
       </c>
-      <c r="BM34" s="4">
+      <c r="BN34" s="4">
         <f t="shared" si="27"/>
         <v>55.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO34" s="4">
+        <f t="shared" si="38"/>
+        <v>5.3000000000000114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -14925,120 +15191,128 @@
         <f t="shared" si="36"/>
         <v>0.2</v>
       </c>
-      <c r="AL35" s="4">
+      <c r="AJ35" s="9">
+        <f t="shared" si="37"/>
+        <v>10.306917086578105</v>
+      </c>
+      <c r="AM35" s="4">
+        <f t="shared" si="42"/>
+        <v>23.599999999999998</v>
+      </c>
+      <c r="AN35" s="4">
+        <f t="shared" si="43"/>
+        <v>15.7</v>
+      </c>
+      <c r="AO35" s="4">
+        <f t="shared" si="44"/>
+        <v>15.7</v>
+      </c>
+      <c r="AP35" s="4">
+        <f t="shared" si="45"/>
+        <v>23.599999999999998</v>
+      </c>
+      <c r="AQ35" s="4">
+        <f t="shared" si="46"/>
+        <v>23.599999999999998</v>
+      </c>
+      <c r="AR35" s="4">
+        <f t="shared" si="47"/>
+        <v>71</v>
+      </c>
+      <c r="AS35" s="4">
+        <f t="shared" si="48"/>
+        <v>57.8</v>
+      </c>
+      <c r="AT35" s="4">
+        <f t="shared" si="49"/>
+        <v>55.2</v>
+      </c>
+      <c r="AU35" s="4">
+        <f t="shared" si="50"/>
+        <v>5.2</v>
+      </c>
+      <c r="AV35" s="4">
+        <f t="shared" si="50"/>
+        <v>2.6</v>
+      </c>
+      <c r="AW35" s="4">
+        <f t="shared" si="50"/>
+        <v>86.8</v>
+      </c>
+      <c r="AX35" s="4">
+        <f t="shared" si="50"/>
+        <v>5.2</v>
+      </c>
+      <c r="AY35" s="4">
+        <f t="shared" si="50"/>
+        <v>39.4</v>
+      </c>
+      <c r="AZ35" s="4">
+        <f t="shared" si="50"/>
+        <v>26.3</v>
+      </c>
+      <c r="BA35" s="4">
+        <f t="shared" si="50"/>
+        <v>50</v>
+      </c>
+      <c r="BB35" s="4">
         <f t="shared" si="40"/>
-        <v>23.599999999999998</v>
-      </c>
-      <c r="AM35" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="BC35" s="4">
         <f t="shared" si="41"/>
-        <v>15.7</v>
-      </c>
-      <c r="AN35" s="4">
-        <f t="shared" si="42"/>
-        <v>15.7</v>
-      </c>
-      <c r="AO35" s="4">
-        <f t="shared" si="43"/>
-        <v>23.599999999999998</v>
-      </c>
-      <c r="AP35" s="4">
-        <f t="shared" si="44"/>
-        <v>23.599999999999998</v>
-      </c>
-      <c r="AQ35" s="4">
-        <f t="shared" si="45"/>
-        <v>71</v>
-      </c>
-      <c r="AR35" s="4">
-        <f t="shared" si="46"/>
-        <v>57.8</v>
-      </c>
-      <c r="AS35" s="4">
-        <f t="shared" si="47"/>
-        <v>55.2</v>
-      </c>
-      <c r="AT35" s="4">
-        <f t="shared" si="48"/>
-        <v>5.2</v>
-      </c>
-      <c r="AU35" s="4">
-        <f t="shared" si="48"/>
-        <v>2.6</v>
-      </c>
-      <c r="AV35" s="4">
-        <f t="shared" si="48"/>
-        <v>86.8</v>
-      </c>
-      <c r="AW35" s="4">
-        <f t="shared" si="48"/>
-        <v>5.2</v>
-      </c>
-      <c r="AX35" s="4">
-        <f t="shared" si="48"/>
-        <v>39.4</v>
-      </c>
-      <c r="AY35" s="4">
-        <f t="shared" si="48"/>
-        <v>26.3</v>
-      </c>
-      <c r="AZ35" s="4">
-        <f t="shared" si="48"/>
-        <v>50</v>
-      </c>
-      <c r="BA35" s="4">
-        <f t="shared" si="38"/>
-        <v>10.5</v>
-      </c>
-      <c r="BB35" s="4">
-        <f t="shared" si="39"/>
         <v>60.5</v>
       </c>
-      <c r="BC35" s="4">
+      <c r="BD35" s="4">
         <f t="shared" si="17"/>
         <v>84.3</v>
       </c>
-      <c r="BD35" s="4">
+      <c r="BE35" s="4">
         <f t="shared" si="18"/>
         <v>71.099999999999994</v>
       </c>
-      <c r="BE35" s="4">
-        <f t="shared" si="49"/>
+      <c r="BF35" s="4">
+        <f t="shared" si="51"/>
         <v>7.8</v>
       </c>
-      <c r="BF35" s="4">
-        <f t="shared" si="50"/>
+      <c r="BG35" s="4">
+        <f t="shared" si="52"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="BG35" s="4">
-        <f t="shared" si="51"/>
-        <v>13.100000000000001</v>
-      </c>
       <c r="BH35" s="4">
-        <f t="shared" si="52"/>
-        <v>76.3</v>
-      </c>
-      <c r="BI35" s="4">
         <f t="shared" si="53"/>
         <v>13.100000000000001</v>
       </c>
+      <c r="BI35" s="4">
+        <f t="shared" si="54"/>
+        <v>76.3</v>
+      </c>
       <c r="BJ35" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>13.100000000000001</v>
       </c>
       <c r="BK35" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
+        <v>13.100000000000001</v>
+      </c>
+      <c r="BL35" s="4">
+        <f t="shared" si="57"/>
         <v>26.3</v>
       </c>
-      <c r="BL35" s="4">
-        <f t="shared" si="56"/>
+      <c r="BM35" s="4">
+        <f t="shared" si="58"/>
         <v>31.5</v>
       </c>
-      <c r="BM35" s="4">
+      <c r="BN35" s="4">
         <f t="shared" si="27"/>
         <v>76.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO35" s="4">
+        <f t="shared" si="38"/>
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -15157,120 +15431,128 @@
         <f t="shared" si="36"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="AL36" s="4">
-        <f t="shared" si="40"/>
+      <c r="AJ36" s="9">
+        <f t="shared" si="37"/>
+        <v>18.597236981934113</v>
+      </c>
+      <c r="AM36" s="4">
+        <f t="shared" si="42"/>
         <v>15.7</v>
       </c>
-      <c r="AM36" s="4">
-        <f t="shared" si="41"/>
-        <v>13.100000000000001</v>
-      </c>
       <c r="AN36" s="4">
-        <f t="shared" si="42"/>
-        <v>21</v>
-      </c>
-      <c r="AO36" s="4">
         <f t="shared" si="43"/>
         <v>13.100000000000001</v>
       </c>
+      <c r="AO36" s="4">
+        <f t="shared" si="44"/>
+        <v>21</v>
+      </c>
       <c r="AP36" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
+        <v>13.100000000000001</v>
+      </c>
+      <c r="AQ36" s="4">
+        <f t="shared" si="46"/>
         <v>92.100000000000009</v>
       </c>
-      <c r="AQ36" s="4">
-        <f t="shared" si="45"/>
+      <c r="AR36" s="4">
+        <f t="shared" si="47"/>
         <v>7.8</v>
       </c>
-      <c r="AR36" s="4">
-        <f t="shared" si="46"/>
+      <c r="AS36" s="4">
+        <f t="shared" si="48"/>
         <v>5.2</v>
       </c>
-      <c r="AS36" s="4">
-        <f t="shared" si="47"/>
+      <c r="AT36" s="4">
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
-      <c r="AT36" s="4">
-        <f t="shared" si="48"/>
+      <c r="AU36" s="4">
+        <f t="shared" si="50"/>
         <v>26.3</v>
       </c>
-      <c r="AU36" s="4">
-        <f t="shared" si="48"/>
+      <c r="AV36" s="4">
+        <f t="shared" si="50"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="AV36" s="4">
-        <f t="shared" si="48"/>
+      <c r="AW36" s="4">
+        <f t="shared" si="50"/>
         <v>7.8</v>
       </c>
-      <c r="AW36" s="4">
-        <f t="shared" si="48"/>
+      <c r="AX36" s="4">
+        <f t="shared" si="50"/>
         <v>65.7</v>
       </c>
-      <c r="AX36" s="4">
-        <f t="shared" si="48"/>
+      <c r="AY36" s="4">
+        <f t="shared" si="50"/>
         <v>60.5</v>
       </c>
-      <c r="AY36" s="4">
-        <f t="shared" si="48"/>
+      <c r="AZ36" s="4">
+        <f t="shared" si="50"/>
         <v>63.1</v>
       </c>
-      <c r="AZ36" s="4">
-        <f t="shared" si="48"/>
+      <c r="BA36" s="4">
+        <f t="shared" si="50"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="BA36" s="4">
-        <f t="shared" si="38"/>
+      <c r="BB36" s="4">
+        <f t="shared" si="40"/>
         <v>42.1</v>
       </c>
-      <c r="BB36" s="4">
-        <f t="shared" si="39"/>
+      <c r="BC36" s="4">
+        <f t="shared" si="41"/>
         <v>60.5</v>
       </c>
-      <c r="BC36" s="4">
+      <c r="BD36" s="4">
         <f t="shared" si="17"/>
         <v>63.2</v>
       </c>
-      <c r="BD36" s="4">
+      <c r="BE36" s="4">
         <f t="shared" si="18"/>
         <v>68.5</v>
       </c>
-      <c r="BE36" s="4">
-        <f t="shared" si="49"/>
+      <c r="BF36" s="4">
+        <f t="shared" si="51"/>
         <v>42.1</v>
       </c>
-      <c r="BF36" s="4">
-        <f t="shared" si="50"/>
+      <c r="BG36" s="4">
+        <f t="shared" si="52"/>
         <v>31.5</v>
       </c>
-      <c r="BG36" s="4">
-        <f t="shared" si="51"/>
+      <c r="BH36" s="4">
+        <f t="shared" si="53"/>
         <v>81.5</v>
       </c>
-      <c r="BH36" s="4">
-        <f t="shared" si="52"/>
+      <c r="BI36" s="4">
+        <f t="shared" si="54"/>
         <v>15.7</v>
       </c>
-      <c r="BI36" s="4">
-        <f t="shared" si="53"/>
+      <c r="BJ36" s="4">
+        <f t="shared" si="55"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="BJ36" s="4">
-        <f t="shared" si="54"/>
+      <c r="BK36" s="4">
+        <f t="shared" si="56"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="BK36" s="4">
-        <f t="shared" si="55"/>
+      <c r="BL36" s="4">
+        <f t="shared" si="57"/>
         <v>71</v>
       </c>
-      <c r="BL36" s="4">
-        <f t="shared" si="56"/>
+      <c r="BM36" s="4">
+        <f t="shared" si="58"/>
         <v>84.2</v>
       </c>
-      <c r="BM36" s="4">
+      <c r="BN36" s="4">
         <f t="shared" si="27"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO36" s="4">
+        <f t="shared" si="38"/>
+        <v>10.599999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -15389,120 +15671,128 @@
         <f t="shared" si="36"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="AL37" s="4">
+      <c r="AJ37" s="9">
+        <f t="shared" si="37"/>
+        <v>9.6365638766519819</v>
+      </c>
+      <c r="AM37" s="4">
+        <f t="shared" si="42"/>
+        <v>28.9</v>
+      </c>
+      <c r="AN37" s="4">
+        <f t="shared" si="43"/>
+        <v>10.5</v>
+      </c>
+      <c r="AO37" s="4">
+        <f t="shared" si="44"/>
+        <v>15.7</v>
+      </c>
+      <c r="AP37" s="4">
+        <f t="shared" si="45"/>
+        <v>15.7</v>
+      </c>
+      <c r="AQ37" s="4">
+        <f t="shared" si="46"/>
+        <v>71</v>
+      </c>
+      <c r="AR37" s="4">
+        <f t="shared" si="47"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AS37" s="4">
+        <f t="shared" si="48"/>
+        <v>26.3</v>
+      </c>
+      <c r="AT37" s="4">
+        <f t="shared" si="49"/>
+        <v>60.5</v>
+      </c>
+      <c r="AU37" s="4">
+        <f t="shared" si="50"/>
+        <v>2.6</v>
+      </c>
+      <c r="AV37" s="4">
+        <f t="shared" si="50"/>
+        <v>15.7</v>
+      </c>
+      <c r="AW37" s="4">
+        <f t="shared" si="50"/>
+        <v>5.2</v>
+      </c>
+      <c r="AX37" s="4">
+        <f t="shared" si="50"/>
+        <v>44.7</v>
+      </c>
+      <c r="AY37" s="4">
+        <f t="shared" si="50"/>
+        <v>13.100000000000001</v>
+      </c>
+      <c r="AZ37" s="4">
+        <f t="shared" si="50"/>
+        <v>13.100000000000001</v>
+      </c>
+      <c r="BA37" s="4">
+        <f t="shared" si="50"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="BB37" s="4">
         <f t="shared" si="40"/>
-        <v>28.9</v>
-      </c>
-      <c r="AM37" s="4">
+        <v>55.2</v>
+      </c>
+      <c r="BC37" s="4">
         <f t="shared" si="41"/>
-        <v>10.5</v>
-      </c>
-      <c r="AN37" s="4">
-        <f t="shared" si="42"/>
-        <v>15.7</v>
-      </c>
-      <c r="AO37" s="4">
-        <f t="shared" si="43"/>
-        <v>15.7</v>
-      </c>
-      <c r="AP37" s="4">
-        <f t="shared" si="44"/>
-        <v>71</v>
-      </c>
-      <c r="AQ37" s="4">
-        <f t="shared" si="45"/>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="AR37" s="4">
-        <f t="shared" si="46"/>
-        <v>26.3</v>
-      </c>
-      <c r="AS37" s="4">
-        <f t="shared" si="47"/>
         <v>60.5</v>
       </c>
-      <c r="AT37" s="4">
-        <f t="shared" si="48"/>
-        <v>2.6</v>
-      </c>
-      <c r="AU37" s="4">
-        <f t="shared" si="48"/>
-        <v>15.7</v>
-      </c>
-      <c r="AV37" s="4">
-        <f t="shared" si="48"/>
-        <v>5.2</v>
-      </c>
-      <c r="AW37" s="4">
-        <f t="shared" si="48"/>
-        <v>44.7</v>
-      </c>
-      <c r="AX37" s="4">
-        <f t="shared" si="48"/>
-        <v>13.100000000000001</v>
-      </c>
-      <c r="AY37" s="4">
-        <f t="shared" si="48"/>
-        <v>13.100000000000001</v>
-      </c>
-      <c r="AZ37" s="4">
-        <f t="shared" si="48"/>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="BA37" s="4">
-        <f t="shared" si="38"/>
-        <v>55.2</v>
-      </c>
-      <c r="BB37" s="4">
-        <f t="shared" si="39"/>
-        <v>60.5</v>
-      </c>
-      <c r="BC37" s="4">
+      <c r="BD37" s="4">
         <f t="shared" si="17"/>
         <v>94.8</v>
       </c>
-      <c r="BD37" s="4">
+      <c r="BE37" s="4">
         <f t="shared" si="18"/>
         <v>68.5</v>
       </c>
-      <c r="BE37" s="4">
-        <f t="shared" si="49"/>
+      <c r="BF37" s="4">
+        <f t="shared" si="51"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="BF37" s="4">
-        <f t="shared" si="50"/>
+      <c r="BG37" s="4">
+        <f t="shared" si="52"/>
         <v>15.7</v>
       </c>
-      <c r="BG37" s="4">
-        <f t="shared" si="51"/>
+      <c r="BH37" s="4">
+        <f t="shared" si="53"/>
         <v>78.900000000000006</v>
       </c>
-      <c r="BH37" s="4">
-        <f t="shared" si="52"/>
+      <c r="BI37" s="4">
+        <f t="shared" si="54"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="BI37" s="4">
-        <f t="shared" si="53"/>
+      <c r="BJ37" s="4">
+        <f t="shared" si="55"/>
         <v>42.1</v>
       </c>
-      <c r="BJ37" s="4">
-        <f t="shared" si="54"/>
+      <c r="BK37" s="4">
+        <f t="shared" si="56"/>
         <v>42.1</v>
       </c>
-      <c r="BK37" s="4">
-        <f t="shared" si="55"/>
+      <c r="BL37" s="4">
+        <f t="shared" si="57"/>
         <v>47.3</v>
       </c>
-      <c r="BL37" s="4">
-        <f t="shared" si="56"/>
+      <c r="BM37" s="4">
+        <f t="shared" si="58"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="BM37" s="4">
+      <c r="BN37" s="4">
         <f t="shared" si="27"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO37" s="4">
+        <f t="shared" si="38"/>
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -15621,120 +15911,128 @@
         <f t="shared" si="36"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="AL38" s="4">
-        <f t="shared" si="40"/>
+      <c r="AJ38" s="9">
+        <f t="shared" si="37"/>
+        <v>7.6726342710997448</v>
+      </c>
+      <c r="AM38" s="4">
+        <f t="shared" si="42"/>
         <v>28.9</v>
       </c>
-      <c r="AM38" s="4">
-        <f t="shared" si="41"/>
+      <c r="AN38" s="4">
+        <f t="shared" si="43"/>
         <v>7.8</v>
       </c>
-      <c r="AN38" s="4">
-        <f t="shared" si="42"/>
-        <v>5.2</v>
-      </c>
       <c r="AO38" s="4">
-        <f t="shared" si="43"/>
-        <v>21</v>
-      </c>
-      <c r="AP38" s="4">
         <f t="shared" si="44"/>
         <v>5.2</v>
       </c>
+      <c r="AP38" s="4">
+        <f t="shared" si="45"/>
+        <v>21</v>
+      </c>
       <c r="AQ38" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
+        <v>5.2</v>
+      </c>
+      <c r="AR38" s="4">
+        <f t="shared" si="47"/>
         <v>28.9</v>
       </c>
-      <c r="AR38" s="4">
-        <f t="shared" si="46"/>
+      <c r="AS38" s="4">
+        <f t="shared" si="48"/>
         <v>47.3</v>
       </c>
-      <c r="AS38" s="4">
-        <f t="shared" si="47"/>
+      <c r="AT38" s="4">
+        <f t="shared" si="49"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="AT38" s="4">
-        <f t="shared" si="48"/>
+      <c r="AU38" s="4">
+        <f t="shared" si="50"/>
         <v>10.5</v>
       </c>
-      <c r="AU38" s="4">
-        <f t="shared" si="48"/>
+      <c r="AV38" s="4">
+        <f t="shared" si="50"/>
         <v>10.5</v>
       </c>
-      <c r="AV38" s="4">
-        <f t="shared" si="48"/>
+      <c r="AW38" s="4">
+        <f t="shared" si="50"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="AW38" s="4">
-        <f t="shared" si="48"/>
+      <c r="AX38" s="4">
+        <f t="shared" si="50"/>
         <v>52.6</v>
       </c>
-      <c r="AX38" s="4">
-        <f t="shared" si="48"/>
+      <c r="AY38" s="4">
+        <f t="shared" si="50"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="AY38" s="4">
-        <f t="shared" si="48"/>
+      <c r="AZ38" s="4">
+        <f t="shared" si="50"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="AZ38" s="4">
-        <f t="shared" si="48"/>
+      <c r="BA38" s="4">
+        <f t="shared" si="50"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="BA38" s="4">
-        <f t="shared" si="38"/>
+      <c r="BB38" s="4">
+        <f t="shared" si="40"/>
         <v>10.5</v>
       </c>
-      <c r="BB38" s="4">
-        <f t="shared" si="39"/>
+      <c r="BC38" s="4">
+        <f t="shared" si="41"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BC38" s="4">
+      <c r="BD38" s="4">
         <f t="shared" si="17"/>
         <v>97.4</v>
       </c>
-      <c r="BD38" s="4">
+      <c r="BE38" s="4">
         <f t="shared" si="18"/>
         <v>29</v>
       </c>
-      <c r="BE38" s="4">
-        <f t="shared" si="49"/>
+      <c r="BF38" s="4">
+        <f t="shared" si="51"/>
         <v>5.2</v>
       </c>
-      <c r="BF38" s="4">
-        <f t="shared" si="50"/>
+      <c r="BG38" s="4">
+        <f t="shared" si="52"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="BG38" s="4">
-        <f t="shared" si="51"/>
+      <c r="BH38" s="4">
+        <f t="shared" si="53"/>
         <v>21</v>
       </c>
-      <c r="BH38" s="4">
-        <f t="shared" si="52"/>
+      <c r="BI38" s="4">
+        <f t="shared" si="54"/>
         <v>86.8</v>
       </c>
-      <c r="BI38" s="4">
-        <f t="shared" si="53"/>
+      <c r="BJ38" s="4">
+        <f t="shared" si="55"/>
         <v>5.2</v>
       </c>
-      <c r="BJ38" s="4">
-        <f t="shared" si="54"/>
+      <c r="BK38" s="4">
+        <f t="shared" si="56"/>
         <v>5.2</v>
       </c>
-      <c r="BK38" s="4">
-        <f t="shared" si="55"/>
+      <c r="BL38" s="4">
+        <f t="shared" si="57"/>
         <v>10.5</v>
       </c>
-      <c r="BL38" s="4">
-        <f t="shared" si="56"/>
+      <c r="BM38" s="4">
+        <f t="shared" si="58"/>
         <v>2.6</v>
       </c>
-      <c r="BM38" s="4">
+      <c r="BN38" s="4">
         <f t="shared" si="27"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO38" s="4">
+        <f t="shared" si="38"/>
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -15853,120 +16151,128 @@
         <f t="shared" si="36"/>
         <v>0.22222222222222224</v>
       </c>
-      <c r="AL39" s="4">
-        <f t="shared" si="40"/>
+      <c r="AJ39" s="9">
+        <f t="shared" si="37"/>
+        <v>8.400537634408602</v>
+      </c>
+      <c r="AM39" s="4">
+        <f t="shared" si="42"/>
         <v>7.8</v>
       </c>
-      <c r="AM39" s="4">
-        <f t="shared" si="41"/>
-        <v>5.2</v>
-      </c>
       <c r="AN39" s="4">
-        <f t="shared" si="42"/>
-        <v>5.2</v>
-      </c>
-      <c r="AO39" s="4">
         <f t="shared" si="43"/>
         <v>5.2</v>
       </c>
+      <c r="AO39" s="4">
+        <f t="shared" si="44"/>
+        <v>5.2</v>
+      </c>
       <c r="AP39" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
+        <v>5.2</v>
+      </c>
+      <c r="AQ39" s="4">
+        <f t="shared" si="46"/>
         <v>63.1</v>
       </c>
-      <c r="AQ39" s="4">
-        <f t="shared" si="45"/>
+      <c r="AR39" s="4">
+        <f t="shared" si="47"/>
         <v>7.8</v>
       </c>
-      <c r="AR39" s="4">
-        <f t="shared" si="46"/>
+      <c r="AS39" s="4">
+        <f t="shared" si="48"/>
         <v>7.8</v>
       </c>
-      <c r="AS39" s="4">
-        <f t="shared" si="47"/>
+      <c r="AT39" s="4">
+        <f t="shared" si="49"/>
         <v>89.4</v>
       </c>
-      <c r="AT39" s="4">
-        <f t="shared" si="48"/>
+      <c r="AU39" s="4">
+        <f t="shared" si="50"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="AU39" s="4">
-        <f t="shared" si="48"/>
+      <c r="AV39" s="4">
+        <f t="shared" si="50"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="AV39" s="4">
-        <f t="shared" si="48"/>
+      <c r="AW39" s="4">
+        <f t="shared" si="50"/>
         <v>31.5</v>
       </c>
-      <c r="AW39" s="4">
-        <f t="shared" si="48"/>
+      <c r="AX39" s="4">
+        <f t="shared" si="50"/>
         <v>81.5</v>
       </c>
-      <c r="AX39" s="4">
-        <f t="shared" si="48"/>
+      <c r="AY39" s="4">
+        <f t="shared" si="50"/>
         <v>52.6</v>
       </c>
-      <c r="AY39" s="4">
-        <f t="shared" si="48"/>
+      <c r="AZ39" s="4">
+        <f t="shared" si="50"/>
         <v>63.1</v>
       </c>
-      <c r="AZ39" s="4">
-        <f t="shared" si="48"/>
+      <c r="BA39" s="4">
+        <f t="shared" si="50"/>
         <v>2.6</v>
       </c>
-      <c r="BA39" s="4">
-        <f t="shared" si="38"/>
+      <c r="BB39" s="4">
+        <f t="shared" si="40"/>
         <v>5.2</v>
       </c>
-      <c r="BB39" s="4">
-        <f t="shared" si="39"/>
+      <c r="BC39" s="4">
+        <f t="shared" si="41"/>
         <v>60.5</v>
       </c>
-      <c r="BC39" s="4">
+      <c r="BD39" s="4">
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="BD39" s="4">
+      <c r="BE39" s="4">
         <f t="shared" si="18"/>
         <v>92.2</v>
       </c>
-      <c r="BE39" s="4">
-        <f t="shared" si="49"/>
+      <c r="BF39" s="4">
+        <f t="shared" si="51"/>
         <v>21</v>
       </c>
-      <c r="BF39" s="4">
-        <f t="shared" si="50"/>
+      <c r="BG39" s="4">
+        <f t="shared" si="52"/>
         <v>21</v>
       </c>
-      <c r="BG39" s="4">
-        <f t="shared" si="51"/>
+      <c r="BH39" s="4">
+        <f t="shared" si="53"/>
         <v>42.1</v>
       </c>
-      <c r="BH39" s="4">
-        <f t="shared" si="52"/>
+      <c r="BI39" s="4">
+        <f t="shared" si="54"/>
         <v>42.1</v>
       </c>
-      <c r="BI39" s="4">
-        <f t="shared" si="53"/>
+      <c r="BJ39" s="4">
+        <f t="shared" si="55"/>
         <v>44.7</v>
       </c>
-      <c r="BJ39" s="4">
-        <f t="shared" si="54"/>
+      <c r="BK39" s="4">
+        <f t="shared" si="56"/>
         <v>44.7</v>
       </c>
-      <c r="BK39" s="4">
-        <f t="shared" si="55"/>
+      <c r="BL39" s="4">
+        <f t="shared" si="57"/>
         <v>57.8</v>
       </c>
-      <c r="BL39" s="4">
-        <f t="shared" si="56"/>
+      <c r="BM39" s="4">
+        <f t="shared" si="58"/>
         <v>52.6</v>
       </c>
-      <c r="BM39" s="4">
+      <c r="BN39" s="4">
         <f t="shared" si="27"/>
         <v>78.900000000000006</v>
       </c>
-    </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO39" s="4">
+        <f t="shared" si="38"/>
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -16085,120 +16391,128 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="4">
-        <f t="shared" si="40"/>
+      <c r="AJ40" s="9">
+        <f t="shared" si="37"/>
+        <v>23.32089552238806</v>
+      </c>
+      <c r="AM40" s="4">
+        <f t="shared" si="42"/>
         <v>2.6</v>
       </c>
-      <c r="AM40" s="4">
-        <f t="shared" si="41"/>
-        <v>2.6</v>
-      </c>
       <c r="AN40" s="4">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AO40" s="4">
         <f t="shared" si="43"/>
         <v>2.6</v>
       </c>
-      <c r="AP40" s="4">
+      <c r="AO40" s="4">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
+      <c r="AP40" s="4">
+        <f t="shared" si="45"/>
+        <v>2.6</v>
+      </c>
       <c r="AQ40" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AR40" s="4">
+        <f t="shared" si="47"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="AR40" s="4">
-        <f t="shared" si="46"/>
+      <c r="AS40" s="4">
+        <f t="shared" si="48"/>
         <v>42.1</v>
       </c>
-      <c r="AS40" s="4">
-        <f t="shared" si="47"/>
+      <c r="AT40" s="4">
+        <f t="shared" si="49"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="AT40" s="4">
-        <f t="shared" si="48"/>
+      <c r="AU40" s="4">
+        <f t="shared" si="50"/>
         <v>5.2</v>
       </c>
-      <c r="AU40" s="4">
-        <f t="shared" si="48"/>
+      <c r="AV40" s="4">
+        <f t="shared" si="50"/>
         <v>2.6</v>
       </c>
-      <c r="AV40" s="4">
-        <f t="shared" si="48"/>
+      <c r="AW40" s="4">
+        <f t="shared" si="50"/>
         <v>86.8</v>
       </c>
-      <c r="AW40" s="4">
-        <f t="shared" si="48"/>
+      <c r="AX40" s="4">
+        <f t="shared" si="50"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="AX40" s="4">
-        <f t="shared" si="48"/>
+      <c r="AY40" s="4">
+        <f t="shared" si="50"/>
         <v>2.6</v>
       </c>
-      <c r="AY40" s="4">
-        <f t="shared" si="48"/>
+      <c r="AZ40" s="4">
+        <f t="shared" si="50"/>
         <v>2.6</v>
       </c>
-      <c r="AZ40" s="4">
-        <f t="shared" si="48"/>
+      <c r="BA40" s="4">
+        <f t="shared" si="50"/>
         <v>28.9</v>
       </c>
-      <c r="BA40" s="4">
-        <f t="shared" si="38"/>
+      <c r="BB40" s="4">
+        <f t="shared" si="40"/>
         <v>28.9</v>
       </c>
-      <c r="BB40" s="4">
-        <f t="shared" si="39"/>
+      <c r="BC40" s="4">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="BC40" s="4">
+      <c r="BD40" s="4">
         <f t="shared" si="17"/>
         <v>52.7</v>
       </c>
-      <c r="BD40" s="4">
+      <c r="BE40" s="4">
         <f t="shared" si="18"/>
         <v>44.8</v>
       </c>
-      <c r="BE40" s="4">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
       <c r="BF40" s="4">
-        <f t="shared" si="50"/>
-        <v>2.6</v>
-      </c>
-      <c r="BG40" s="4">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
+      <c r="BG40" s="4">
+        <f t="shared" si="52"/>
+        <v>2.6</v>
+      </c>
       <c r="BH40" s="4">
-        <f t="shared" si="52"/>
-        <v>31.5</v>
-      </c>
-      <c r="BI40" s="4">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
+      <c r="BI40" s="4">
+        <f t="shared" si="54"/>
+        <v>31.5</v>
+      </c>
       <c r="BJ40" s="4">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="BK40" s="4">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="BL40" s="4">
+      <c r="BK40" s="4">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
+      <c r="BL40" s="4">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
       <c r="BM40" s="4">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BN40" s="4">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO40" s="4">
+        <f t="shared" si="38"/>
+        <v>2.7000000000000028</v>
+      </c>
+    </row>
+    <row r="41" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -16317,120 +16631,128 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="4">
+      <c r="AJ41" s="9">
+        <f t="shared" si="37"/>
+        <v>50</v>
+      </c>
+      <c r="AM41" s="4">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AN41" s="4">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AO41" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AP41" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="4">
+        <f t="shared" si="46"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AR41" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AS41" s="4">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AT41" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AU41" s="4">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AV41" s="4">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AW41" s="4">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AX41" s="4">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AY41" s="4">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="4">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="BA41" s="4">
+        <f t="shared" si="50"/>
+        <v>13.100000000000001</v>
+      </c>
+      <c r="BB41" s="4">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AM41" s="4">
+      <c r="BC41" s="4">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AN41" s="4">
-        <f t="shared" si="42"/>
+      <c r="BD41" s="4">
+        <f t="shared" si="17"/>
+        <v>15.799999999999997</v>
+      </c>
+      <c r="BE41" s="4">
+        <f t="shared" si="18"/>
+        <v>23.700000000000003</v>
+      </c>
+      <c r="BF41" s="4">
+        <f t="shared" si="51"/>
+        <v>2.6</v>
+      </c>
+      <c r="BG41" s="4">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="AO41" s="4">
-        <f t="shared" si="43"/>
+      <c r="BH41" s="4">
+        <f t="shared" si="53"/>
+        <v>47.3</v>
+      </c>
+      <c r="BI41" s="4">
+        <f t="shared" si="54"/>
+        <v>5.2</v>
+      </c>
+      <c r="BJ41" s="4">
+        <f t="shared" si="55"/>
+        <v>15.7</v>
+      </c>
+      <c r="BK41" s="4">
+        <f t="shared" si="56"/>
+        <v>15.7</v>
+      </c>
+      <c r="BL41" s="4">
+        <f t="shared" si="57"/>
+        <v>2.6</v>
+      </c>
+      <c r="BM41" s="4">
+        <f t="shared" si="58"/>
+        <v>52.6</v>
+      </c>
+      <c r="BN41" s="4">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AP41" s="4">
-        <f t="shared" si="44"/>
-        <v>73.599999999999994</v>
-      </c>
-      <c r="AQ41" s="4">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AR41" s="4">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AS41" s="4">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AT41" s="4">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AU41" s="4">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AV41" s="4">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AW41" s="4">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AX41" s="4">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AY41" s="4">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AZ41" s="4">
-        <f t="shared" si="48"/>
-        <v>13.100000000000001</v>
-      </c>
-      <c r="BA41" s="4">
+      <c r="BO41" s="4">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="BB41" s="4">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="BC41" s="4">
-        <f t="shared" si="17"/>
-        <v>15.799999999999997</v>
-      </c>
-      <c r="BD41" s="4">
-        <f t="shared" si="18"/>
-        <v>23.700000000000003</v>
-      </c>
-      <c r="BE41" s="4">
-        <f t="shared" si="49"/>
-        <v>2.6</v>
-      </c>
-      <c r="BF41" s="4">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="BG41" s="4">
-        <f t="shared" si="51"/>
-        <v>47.3</v>
-      </c>
-      <c r="BH41" s="4">
-        <f t="shared" si="52"/>
-        <v>5.2</v>
-      </c>
-      <c r="BI41" s="4">
-        <f t="shared" si="53"/>
-        <v>15.7</v>
-      </c>
-      <c r="BJ41" s="4">
-        <f t="shared" si="54"/>
-        <v>15.7</v>
-      </c>
-      <c r="BK41" s="4">
-        <f t="shared" si="55"/>
-        <v>2.6</v>
-      </c>
-      <c r="BL41" s="4">
-        <f t="shared" si="56"/>
-        <v>52.6</v>
-      </c>
-      <c r="BM41" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="5"/>
       <c r="C42" s="2"/>
@@ -16466,7 +16788,6 @@
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
       <c r="AI42" s="3"/>
-      <c r="AL42" s="4"/>
       <c r="AM42" s="4"/>
       <c r="AN42" s="4"/>
       <c r="AO42" s="4"/>
@@ -16494,8 +16815,9 @@
       <c r="BK42" s="4"/>
       <c r="BL42" s="4"/>
       <c r="BM42" s="4"/>
-    </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN42" s="4"/>
+    </row>
+    <row r="43" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
@@ -16531,7 +16853,6 @@
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="3"/>
-      <c r="AL43" s="4"/>
       <c r="AM43" s="4"/>
       <c r="AN43" s="4"/>
       <c r="AO43" s="4"/>
@@ -16559,8 +16880,9 @@
       <c r="BK43" s="4"/>
       <c r="BL43" s="4"/>
       <c r="BM43" s="4"/>
-    </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN43" s="4"/>
+    </row>
+    <row r="44" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="5"/>
       <c r="C44" s="2"/>
@@ -16596,7 +16918,6 @@
       <c r="AG44" s="4"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="3"/>
-      <c r="AL44" s="4"/>
       <c r="AM44" s="4"/>
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
@@ -16624,8 +16945,9 @@
       <c r="BK44" s="4"/>
       <c r="BL44" s="4"/>
       <c r="BM44" s="4"/>
-    </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN44" s="4"/>
+    </row>
+    <row r="45" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="5"/>
       <c r="C45" s="2"/>
@@ -16661,7 +16983,6 @@
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
       <c r="AI45" s="3"/>
-      <c r="AL45" s="4"/>
       <c r="AM45" s="4"/>
       <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
@@ -16689,8 +17010,9 @@
       <c r="BK45" s="4"/>
       <c r="BL45" s="4"/>
       <c r="BM45" s="4"/>
-    </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN45" s="4"/>
+    </row>
+    <row r="46" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="5"/>
       <c r="C46" s="2"/>
@@ -16726,7 +17048,6 @@
       <c r="AG46" s="4"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="3"/>
-      <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
       <c r="AO46" s="4"/>
@@ -16754,8 +17075,9 @@
       <c r="BK46" s="4"/>
       <c r="BL46" s="4"/>
       <c r="BM46" s="4"/>
-    </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN46" s="4"/>
+    </row>
+    <row r="47" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="5"/>
       <c r="C47" s="2"/>
@@ -16791,7 +17113,6 @@
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="3"/>
-      <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
       <c r="AO47" s="4"/>
@@ -16819,8 +17140,9 @@
       <c r="BK47" s="4"/>
       <c r="BL47" s="4"/>
       <c r="BM47" s="4"/>
-    </row>
-    <row r="48" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN47" s="4"/>
+    </row>
+    <row r="48" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="5"/>
       <c r="C48" s="2"/>
@@ -16856,7 +17178,6 @@
       <c r="AG48" s="4"/>
       <c r="AH48" s="4"/>
       <c r="AI48" s="3"/>
-      <c r="AL48" s="4"/>
       <c r="AM48" s="4"/>
       <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
@@ -16884,8 +17205,9 @@
       <c r="BK48" s="4"/>
       <c r="BL48" s="4"/>
       <c r="BM48" s="4"/>
-    </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN48" s="4"/>
+    </row>
+    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="5"/>
       <c r="C49" s="2"/>
@@ -16921,7 +17243,6 @@
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
       <c r="AI49" s="3"/>
-      <c r="AL49" s="4"/>
       <c r="AM49" s="4"/>
       <c r="AN49" s="4"/>
       <c r="AO49" s="4"/>
@@ -16949,6 +17270,7 @@
       <c r="BK49" s="4"/>
       <c r="BL49" s="4"/>
       <c r="BM49" s="4"/>
+      <c r="BN49" s="4"/>
     </row>
     <row r="80" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C80" s="6"/>
@@ -17056,12 +17378,36 @@
       <c r="AI82" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BM2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:BO2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="AL1:BM1"/>
+    <mergeCell ref="AM1:BO1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C78">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D78">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E78">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -17073,7 +17419,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D78">
+  <conditionalFormatting sqref="F3:F78">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -17085,7 +17431,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E78">
+  <conditionalFormatting sqref="G3:G78">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -17097,7 +17443,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F78">
+  <conditionalFormatting sqref="H3:H78">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -17109,7 +17455,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G78">
+  <conditionalFormatting sqref="I3:I78">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -17121,7 +17467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H78">
+  <conditionalFormatting sqref="J3:J78">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -17133,7 +17479,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I78">
+  <conditionalFormatting sqref="K3:K78">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -17145,7 +17491,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J78">
+  <conditionalFormatting sqref="L3:L78">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -17157,7 +17503,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K78">
+  <conditionalFormatting sqref="M3:M78">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -17169,7 +17515,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L78">
+  <conditionalFormatting sqref="N3:N78">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -17181,7 +17527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M78">
+  <conditionalFormatting sqref="O3:O78">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -17193,7 +17539,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N78">
+  <conditionalFormatting sqref="P3:P78">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -17205,7 +17551,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O78">
+  <conditionalFormatting sqref="Q3:Q78">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -17217,7 +17563,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P78">
+  <conditionalFormatting sqref="R3:R78">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -17229,7 +17575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q78">
+  <conditionalFormatting sqref="S3:S78">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -17241,7 +17587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R78">
+  <conditionalFormatting sqref="T3:T78">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -17253,32 +17599,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S78">
+  <conditionalFormatting sqref="U3:U78">
     <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T78">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U78">
-    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17290,7 +17612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V78">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17302,6 +17624,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W78">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X78">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y78">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -17313,7 +17659,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X78">
+  <conditionalFormatting sqref="Z3:Z78">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -17325,7 +17671,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y78">
+  <conditionalFormatting sqref="AA3:AA78">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -17337,7 +17683,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z78">
+  <conditionalFormatting sqref="AB3:AB78">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -17349,8 +17695,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA78">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="AC3:AC78">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17361,7 +17707,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB78">
+  <conditionalFormatting sqref="AD3:AD78">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE78">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -17373,7 +17731,355 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AC78">
+  <conditionalFormatting sqref="AF3:AH78">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AI78">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM3:AM78">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN3:AN78">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO3:AO78">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP3:AP78">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ3:AQ78">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR3:AR78">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS3:AS78">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT3:AT78">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU3:AU78">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV3:AV78">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW3:AW78">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX3:AX78">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY3:AY78">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ3:AZ78">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA3:BA78">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB3:BB78">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC3:BC78">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD3:BD78">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE3:BE78">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF3:BF78">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG3:BG78">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH3:BH78">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI3:BI78">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ3:BJ78">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK3:BK78">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL3:BM78">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN3:BN78">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO3:BO41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -17385,381 +18091,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD78">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE78">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AH78">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI3:AI78">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL3:AL78">
+  <conditionalFormatting sqref="AJ3:AJ41">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
         <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM3:AM78">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN3:AN78">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO3:AO78">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP3:AP78">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ3:AQ78">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR3:AR78">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS3:AS78">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT3:AT78">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU3:AU78">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV3:AV78">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW3:AW78">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX3:AX78">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY3:AY78">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ3:AZ78">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA3:BA78">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB3:BB78">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC3:BC78">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD3:BD78">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:BE78">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF3:BF78">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG3:BG78">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH3:BH78">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI3:BI78">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ3:BJ78">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK3:BL78">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM3:BM78">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="BC3:BC41" formula="1"/>
+    <ignoredError sqref="BD3:BD41" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -17857,7 +18203,7 @@
         <v>0.59398709723794629</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:I49" si="1">(PERCENTRANK(B$3:B$49,B4))*100</f>
+        <f t="shared" ref="G4:I41" si="1">(PERCENTRANK(B$3:B$49,B4))*100</f>
         <v>65.7</v>
       </c>
       <c r="H4" s="4">
